--- a/deuChatbot/research_result/version_2(2500_200).xlsx
+++ b/deuChatbot/research_result/version_2(2500_200).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F301"/>
+  <dimension ref="A1:F401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20879,6 +20879,6896 @@
         </is>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명된 내용은 전반적으로 정확하지만, "각 종목별로 배점 비율이 70%입니다."라는 문장은 다소 모호하게 표현되어 있어, 배점이 700점으로 명시된 원문과의 일치성이 떨어질 수 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원문과 일관되게 정보를 제공하고 있으나, 배점에 대한 설명이 다소 불명확하여 완전한 일관성을 보장하지는 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 다룬 주요 주제와 관련된 정보를 잘 반영하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으나, 몇몇 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 잘 연결되어 있으나, 일부 문장에서 더 명확한 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 정보는 대체로 정확하지만, 배점에 대한 설명이 원문과 완전히 일치하지 않아 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 좋은 품질을 보이나, 몇 가지 세부 사항에서 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 의미적으로 적절하나, 일부 표현이 원문과의 일치성에서 약간의 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 전반적으로 이해하기 쉬운 내용이지만, 몇몇 문장에서 명확성을 높일 필요가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>0.8682172568564664</v>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험은 시각디자인, 산업디자인, 공예디자인이 모집단위이며, 실기종목으로는 기초디자인과 사고의 전환 중 하나를 선택하게 됩니다. 각 종목별로 배점 비율이 70%입니다.
+기본적으로 준비물은 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다. 실기주제는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 당일 추첨을 통해 결정하게 됩니다.
+화지크기는 켄트지3절이며, 시간은 5시간입니다. 제공된 사물과 이미지 이외의 형상은 표현하지 않아야 하며, 제공된 사물은 모두 1회 이상 표현해야 합니다. 또한 색상 변경은 금지되어 있습니다.
+이와 같이 디자인조형학과의 실기시험은 창의적인 문제 해결 능력과 표현력을 평가하는 중요한 부분입니다.</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보를 대부분 정확하게 반영하고 있습니다. 그러나 주제A와 주제B의 예시가 일부 누락되어 있어 완전한 정확성은 부족합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 정보를 제공하고 있습니다. 다만, 주제 예시의 일부가 누락되어 있어 완전한 일관성은 아닙니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 내용을 잘 반영하고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목 간의 연결이 명확합니다. 다만, 일부 세부사항에서 더 명확한 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대체로 정확하게 반영하고 있으나, 일부 세부사항이 누락되어 있어 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 전반적으로 높은 품질을 보여줍니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있습니다. 그러나 일부 세부사항에서 더 명확한 표현이 필요할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 전달되고 있습니다. 다만, 일부 표현에서 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>0.8034287325714285</v>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목은 기초디자인과 사고의 전환 두 가지가 있습니다.
+기초디자인의 경우:
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다. 예시로는 잠자리와 저울, 콜라병과 계절 등이 있습니다.
+- 화지크기: 켄트지3절
+- 시간: 5시간
+사고의 전환의 경우:
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다. 예시로는 콜라병과 계절, 바이러스와 자유 등이 있습니다.
+- 화지크기: 켄트지2절
+- 시간: 5시간
+두 종목 모두 준비물은 비슷하며, 주제는 당일 추첨으로 결정됩니다.</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 누락된 정보나 잘못된 정보가 없습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 모든 중요한 포인트를 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>0.9209835466898221</v>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과에서 배드민턴(남)의 경우, 다음과 같은 대회가 인정대회에 포함되어 있습니다:
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회 (주니어국제대회로 출전한 경우에 한함)
+- 광역시·도 협회장기 종별대회
+축구(남)의 경우, 다음과 같은 대회가 인정대회에 포함되어 있습니다:
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 주제와 추첨 방식에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 주제와 추첨 방식에 대한 설명이 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조가 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 정보의 정확성이 높습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>0.7991524865901927</v>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서 사용되는 주제들은 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+위의 주제들은 당일 추첨을 통해 각 1개씩 선정되어 연결된 주제를 만들게 됩니다.</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 출결 점수가 반영되지 않는다는 사실을 정확하게 반영하고 있습니다. 그러나 "출결, 서류, 면접, 실기 등의 요소가 반영되지 않고"라는 부분은 다소 혼란을 줄 수 있으며, 출결 점수는 0%로 표시된다는 추가 정보는 정확하지만, 원문에서 명시되지 않은 내용입니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하는 부분이 있지만, "출결, 서류, 면접, 실기 등의 요소가 반영되지 않고"라는 문장은 원문과 상충하는 정보로, 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 직접적으로 관련이 있으며, 출결 점수에 대한 질문에 대한 명확한 답변을 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 추가된 정보가 원문과의 연결성을 약간 떨어뜨릴 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 출결 점수가 반영되지 않는다는 사실을 정확하게 전달하고 있지만, 추가된 정보가 원문에 포함되지 않은 점에서 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있지만, 일관성과 정확성에서 약간의 문제가 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 연결되어 있지만, 추가된 정보가 원문과의 맥락에서 다소 부적절할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 정보로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>0.7553107816998693</v>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>동의대학교 학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 학생부교과 전형에서는 출결 점수가 반영되지 않습니다. 출결, 서류, 면접, 실기 등의 요소가 반영되지 않고, 전형요소 반영비율(%)에서 출결은 0%로 표시되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 모집 인원 수와 전형에 대한 정보를 정확하게 반영하고 있습니다. "17명을 모집합니다"라는 내용이 원문과 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원문과 일관되며, 정보가 서로 충돌하지 않습니다. 모든 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 제시된 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽힙니다. 문장 구조가 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 원문과의 연결이 명확합니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원문에 포함된 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉽습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>0.9277135736299483</v>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>2024년 인문사회과학대학의 국어국문학과에서 가군 일반학생전형으로는 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원인 28명을 정확히 언급하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모집 인원과 전형에 대한 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용과 직접적으로 관련이 있으며, 질문에 대한 적절한 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 이해하기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>0.6718046117680775</v>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다.
+인문사회과학대학의 영어영문학과 - 교직이라는 모집단위에서 다군 수능(일반학생전형)으로 모집인원이 28명이라고 명시되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원 수치와 전형의 종류가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>0.7507894322841042</v>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료·보건·생활대학 간호학과 나군 일반 학생 전형의 정원 내 모집 인원은 22명입니다.</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모든 등급과 점수가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제를 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 방식으로 정보를 전달하고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>0.9127105511363734</v>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 다음과 같습니다:
+- 등급 1 : 139점
+- 등급 2 : 131점 
+- 등급 3 : 123점
+- 등급 4 : 115점
+- 등급 5 : 107점
+- 등급 6 : 99점
+- 등급 7 : 91점
+- 등급 8 : 83점
+- 등급 9 : 75점
+이와 같이 수능 영어 등급별로 점수가 정해져 있습니다.</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있다고 잘못된 정보를 제공하고 있습니다. 원문에서는 예술고 학생이 지원할 수 없다고 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 내용을 담고 있어 일관성이 없습니다. 원문에서의 정보와 생성된 응답의 내용이 서로 모순됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 있으며, 예술고 학생의 지원 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원문과의 모순으로 인해 전체적인 일관성이 떨어집니다. 원문과의 연결이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 사실과 다르며, 예술고 학생이 지원할 수 있다고 잘못된 정보를 제공합니다. 원문과의 사실적 차이가 큽니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성에서 모두 낮은 점수를 받으며, 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 없으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문장이 명확하고 이해하기 쉬운 편이지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>0.7244724919064878</v>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원 가능합니다. 전형명은 '학생부교과(농어촌학생전형)'이며, 지원 가능한 고교유형에는 특수목적고의 예술고가 포함되어 있습니다.
+따라서 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원하는 것은 가능합니다.</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답에서 "남은 268~271cm"라는 부분은 사실과 다릅니다. 원본 텍스트에서는 4등급 기록이 218~221 cm로 명확히 제시되어 있습니다. 이로 인해 사실성이 낮아졌습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. "남은 268~271cm"라는 기록은 원본과 상충하므로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 4등급 기록과 배점에 대한 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, "여은"이라는 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 연결되어 있으며, 정보가 잘 전달됩니다. 그러나 "남은"이라는 표현이 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답의 기록 부분이 원본과 다르기 때문에 정확성이 낮습니다. 4등급 기록이 잘못 기재되어 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 응답은 관련성은 높지만, 사실성과 정확성이 낮아 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: "남은"이라는 표현이 문맥에 맞지 않으며, 의미 전달에 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 전반적으로 이해하기 쉬운 문장이지만, 일부 표현이 혼란을 줄 수 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>0.8925846895311339</v>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 남은 268~271cm, 여은 218~221cm이며, 배점은 275점입니다.</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 출결 반영 비율에 대한 정보를 부정확하게 전달하고 있습니다. 원본 텍스트에서 명확히 언급된 12%라는 정보가 누락되었고, 잘못된 주장을 하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 출결 반영 비율에 대한 정보를 제공하지 않는다고 주장하고 있습니다. 이는 원본 텍스트의 내용과 상충합니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 주제인 출결 반영 비율에 대한 정보를 제공하지 않으며, 관련성이 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문법적으로는 비교적 잘 작성되었으나, 내용의 부정확성으로 인해 전체적인 의미 전달이 저해됩니다.
+5. Coherence Score (1-5): 2
+   - 설명: 응답의 내용이 원본 텍스트와 관련이 없기 때문에 일관된 흐름이 부족합니다. 정보가 서로 연결되지 않아 논리적 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 정확한 정보를 제공하지 않습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 품질 차원에서 모두 낮은 점수를 받았으며, 전반적으로 부정확하고 일관성이 없는 응답입니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 문장은 이해할 수 있으나, 정보의 부정확성으로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>0.5837364674112306</v>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 해당 정보에서 동의대학교 경기지도학과 출결 반영 비율에 대한 내용은 제공되지 않았습니다. 더 자세한 정보를 얻으시려면 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다. 모집 인원과 학과명, 학년도 모두 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관성이 있으며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>0.9452619784692259</v>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사 일정인 '2024. 01. 17.(수)'를 정확하게 반영하고 있으며, 추가적인 정보도 제공하고 있습니다. 그러나, 원본 텍스트에 포함되지 않은 세부사항이 많아 완전한 정확성은 다소 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 응답은 원본 텍스트의 일정과 관련된 정보를 포함하고 있지만, 추가된 내용이 원본과 일관되지 않을 수 있습니다. 예를 들어, 실기종목과 준비물에 대한 정보는 원본에 명시되어 있지 않으므로 일관성이 떨어질 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 실기고사 일정에 대한 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 구성되어 있으며, 각 정보가 자연스럽게 연결되어 있습니다. 그러나 추가된 정보가 많아 다소 복잡하게 느껴질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 실기고사 일정에 대한 정확한 정보를 제공하고 있지만, 원본 텍스트에 없는 세부사항이 포함되어 있어 완전한 정확성은 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 추가된 정보도 관련성이 있습니다. 그러나 원본에 없는 정보가 포함되어 있어 다소 주제에서 벗어날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 정보가 많아 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>0.3959488617975269</v>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 2024. 01. 17.(수)에 있습니다.
+디자인조형학과는 시각디자인, 산업디자인, 공예디자인이 모집단위이며, 실기종목은 기초디자인과 사고의 전환으로 나뉩니다. 각 종목별로 700점(70%)을 배점받습니다.
+주의사항:
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등
+- 실기주제: 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다.
+- 화지크기: 켄트지2절 또는 3절
+- 시간: 5시간
+위 정보는 2024학년도 나군 실기/실적 전형의 일정이며, 실제 시행일정이 변경될 수 있으므로 공식 입학안내 홈페이지를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 수능 최저 학력 기준이 없다는 사실을 정확하게 반영하고 있으며, 추가 정보를 얻기 위한 웹사이트 링크도 제공하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 수능 최저 기준이 없다는 내용을 잘 전달하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 수능 최저 기준에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 유창하게 작성되었으나, "제공된 정보에서"라는 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달되고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>0.4216967655096949</v>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 동의대학교 2024학년도 응용화학과의 수능 최저기준에 대한 정보는 없습니다. 추가 정보를 얻으려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi. deu. ac. kr/main. do) 웹사이트를 참조해 주세요.</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1  
+   - 설명: 생성된 응답은 동의대학교 2024학년도에 신설된 학과에 대한 정보를 명확히 언급하지 않고 있으며, 실제로 신설된 학과 목록이 제공된 원문과 상반된 내용을 포함하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1  
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 포함하고 있습니다. 원문에서는 신설된 학과 목록이 명확히 제시되었으나, 생성된 응답은 그러한 정보가 없다고 주장하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2  
+   - 설명: 생성된 응답은 동의대학교의 신설 학과에 대한 질문에 대한 직접적인 답변을 제공하지 않고, 대신 일반적인 정보 확인을 권장하고 있습니다. 원문과의 관련성이 낮습니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성이 떨어지기 때문에 전체적인 평가에는 영향을 미칩니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있으나, 원문과의 관련성이 떨어져서 전체적인 일관성이 부족합니다.
+6. Accuracy Score (1-5): 1  
+   - 설명: 생성된 응답은 원문에서 제공된 신설 학과 목록을 부정하고 있으며, 이는 사실과 다릅니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1  
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2  
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 신설 학과에 대한 질문에 대한 적절한 답변을 제공하지 않습니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있으나, 내용의 부정확성으로 인해 질문에 대한 이해가 어려울 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>0.4386063645277665</v>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>2024학년도에 동의대학교에서 신설된 학과 정보가 제공된 문단 내에서는 명확히 언급되지 않았습니다. 제공된 정보는 이미 존재하는 학과들의 모집 상황을 설명하고 있으며, 새로운 학과의 설립 여부에 대한 구체적인 내용은 포함되어 있지 않습니다.
+만약 동의대학교 2024학년도에 신설된 학과가 있다면, 대학 홈페이지를 방문하여 최신 정보를 확인해 보시는 것이 좋습니다. "https://ipsi.deu.ac.kr/main.do" 링크를 통해 대학 공식 웹사이트로 이동하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 전형요소 반영비율에 대한 정확한 정보를 제공하지 않고 있으며, 오히려 정보가 확인되지 않았다고 주장하고 있습니다. 이는 원문과 상충되는 내용입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 완전히 일치하지 않으며, 원문에서 명시된 비율을 부정하는 내용이 포함되어 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 질문에 대한 직접적인 답변을 제공하지 않고, 웹사이트를 참조하라는 내용으로 대체하고 있습니다. 이는 질문의 핵심에 대한 직접적인 답변이 아니므로 낮은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르며, 읽기에도 무리가 없습니다. 그러나 원문과의 관련성이 떨어지기 때문에 점수가 다소 낮아졌습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원문과의 관련성이 부족하여 전체적인 논리적 흐름이 약간 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 정확한 정보를 왜곡하고 있으며, 사실과 다릅니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 부족하며, 질문에 대한 적절한 답변이 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 내용의 관련성이 떨어져 이해하는 데 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>0.6804804993062941</v>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)에 대한 정확한 전형요소 반영비율 정보가 제공된 문서에서 확인되지 않았습니다. 이와 관련하여 자세한 내용을 알고 싶으시다면, "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조해보시기 바랍니다. 해당 사이트에서는 최신의 전형요소 및 비율 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다. 수능 가산점이 적용되는 모집단위와 수학 과목에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않습니다. 모든 내용이 원본과 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 포인트를 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽지만, "or" 대신 "또는"을 사용하는 것이 더 자연스러울 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>0.8429070329697108</v>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 수능 가산점을 적용하는 학과는 어디인지 알려주세요.</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료·보건·생활, 공과, ICT융합공과대학 모집단위에서 수능 가산점이 적용됩니다. 이들 학과는 수학(미적분 or 기하) 응시자의 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 성적을 100% 반영한다고 명시된 원문과는 다르게, 각 영역별로 25%씩 반영한다고 설명하고 있습니다. 이는 원문과 상충되는 정보로, 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 제공하고 있어 일관성이 부족합니다. 원문에서는 수능 성적을 100% 반영한다고 명시하고 있지만, 생성된 응답에서는 각 영역별로 25%씩 반영한다고 하여 서로 모순됩니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 수능 성적 반영 방법에 대한 정보를 제공하고 있지만, 원문에서 요구하는 100% 반영이라는 핵심 정보를 간과하고 있습니다. 따라서 관련성은 있지만, 핵심 포인트를 놓치고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 내용의 정확성 문제로 인해 완전한 유창성을 평가하기는 어렵습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 원문과의 관계가 명확하지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 상충되는 내용을 포함하고 있어 정확성이 낮습니다. 원문에서는 수능 성적을 100% 반영한다고 명시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받고 있으며, 전반적으로 원문과의 관계가 좋지 않아 다차원적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 수능 성적 반영에 대한 정보를 제공하지만, 원문과의 의미적 일치가 부족하여 적절성에서 다소 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원문과의 불일치로 인해 혼란을 줄 수 있습니다. 
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>0.7383159403683145</v>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 가군에서는 수능 성적을 다음과 같이 반영합니다.
+- **반영 영역**: 국어(화법과작문 or 언어와매체), 수학(확률과통계 or 미적분 or 기하), 영어, 탐구(사회탐구 or 과학탐구 or 직업탐구 중 2개 과목 합)
+- **반영 비율**: 각 영역별로 25%를 반영합니다.
+따라서 전체 수능 성적의 반영 비율은 다음과 같습니다:
+국어(25%) + 수학(25%) + 영어(25%) + 탐구(25%) = 100%
+이 정보가 도움이 되셨길 바랍니다. 만약 더 자세한 내용이나 다른 질문이 있으시다면, https://ipsi. deu. ac. kr/main. do를 참조하시거나 다시 물어보세요.</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다. 날짜와 학교 이름이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보에 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬운 문장으로 잘 작성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 내용으로 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>0.9128408788063518</v>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 한의예과, 디자인조형학과, 체육학과, 경기지도학과가 제외된다는 사실을 잘못 전달하고 있으며, 레저스포츠학과와 태권도학과가 제외되었다고 잘못 언급하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트에서 제외된 학과는 명확히 언급되었으나, 생성된 응답에서는 다른 학과가 제외되었다고 주장하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 포함하고 있어 관련성이 낮습니다. 원본 텍스트의 핵심 정보와는 다르게 다른 학과에 대한 언급이 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보의 흐름은 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에서 벗어난 내용을 포함하고 있어 의미적으로 적절하지 않습니다. 그러나 일부 내용은 관련이 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>0.5853723100397712</v>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서 레저스포츠학과와 태권도학과는 제외되었습니다. 이는 가군 실기/실적(일반학생전형) 전형요소 반영비율에서 확인할 수 있습니다. 가군 실기/실적(일반학생전형)에서는 레저스포츠학과와 태권도학과가 모집단위로 포함되며, 이들 학과의 경우 수능은 30%를 차지하고 실기는 70%를 차지합니다.</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 서로 모순되는 정보가 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 잘 다루고 있으며, 관련된 추가 정보를 제공합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 작성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어집니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>0.7597090967999588</v>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. 이는 모든 전형요소 반영비율에서 공통적으로 나타나는 특징입니다. 자세한 내용은 제공된 정보를 바탕으로 확인하실 수 있습니다. 추가로 궁금하신 점이 있다면 https://ipsi. deu. ac. kr/main. do 를 참조해보시거나 문의주시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 대부분의 학과 분리 정보를 정확하게 반영하고 있지만, "디자인공학부"가 "디자인조형학과"로 잘못 표기되었고, "모집중지"라는 정보는 원본 텍스트에 포함되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트와 대체로 일치하지만, 일부 학과의 명칭이 다르게 표현되어 있어 일관성이 떨어집니다. 예를 들어, "부동산금융자산경영학과"가 "부동산금융·자산경영학부"로 변경되었습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 학과 분리 정보에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우나, 일부 표현에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 학과의 분리 정보를 명확하게 전달하고 있습니다. 그러나 일부 문장 구조가 다소 복잡할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 대부분의 정보를 정확하게 전달하고 있지만, 몇 가지 학과 명칭의 차이로 인해 완전한 정확성에는 미치지 못합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으나, 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 표현에서 약간의 차이가 있어 완전한 적합성에는 미치지 못합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었으나, 일부 복잡한 표현이 이해를 어렵게 할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>0.8353519210224325</v>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 다음과 같은 학과들이 학부에서 학과로 분리되었습니다.
+1. 보육·가정상담학부 → 아동학과
+2. 경제금융보험학부 → 금융경영학과
+3. 정보경영학부(경영정보학, e비즈니스학) → 경영정보학과, e비즈니스학과
+4. 부동산금융·자산경영학부 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인조형학과(서양화·한국화·환경조형) → 모집중지
+위와 같이 여러 학과들이 분리되었습니다. 더 자세한 정보가 필요하시다면 https://ipsi. deu. ac. kr/main. do를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원서접수 마감일이 2024년 1월 6일(토) 18시라는 사실을 정확하게 반영하고 있습니다. 그러나 "인터넷"이라는 추가 정보는 원본 텍스트에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 대체로 일관성을 유지하고 있습니다. 그러나 "인터넷"이라는 표현이 추가되어 있어 약간의 일관성 저하가 발생했습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용인 원서접수 마감일에 직접적으로 관련되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만 "18시까지"라는 표현이 중복되어 있어 약간의 매끄러움이 떨어집니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 전체적으로 이해하기 쉽습니다. 그러나 "인터넷"이라는 추가 정보가 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 마감일에 대한 정확한 정보를 제공하고 있지만, "인터넷"이라는 추가 정보가 원본 텍스트에 없기 때문에 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있지만, 약간의 부정확성과 일관성 저하로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하지만, "인터넷"이라는 추가 정보가 원본의 의미와 다소 어긋날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 중복된 표현이 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>0.9224503714413117</v>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수(인터넷)의 마감일은 2024년 1월 6일(토)까지 18시까지입니다.</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 2024학년도 전형 요소 변화에 대한 구체적인 내용을 잘못 전달하고 있습니다. 원본 텍스트에서 언급된 전형 요소 변화와는 다르게, '학생부종합(성인학습자(정원내·외)전형)'에 대한 세부 사항이 포함되어 있지만, 원본 텍스트의 다른 전형들에 대한 정보는 누락되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 정보가 포함되어 있습니다. 원본 텍스트는 여러 전형의 변화를 나열하고 있지만, 생성된 응답은 특정 전형에만 초점을 맞추고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 전형 요소 변화에 대한 포괄적인 정보를 제공하지 않기 때문에 관련성이 떨어집니다. 원본 텍스트의 모든 전형을 다루지 않고 특정 전형에만 집중하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적으로 연결되어 있지만, 원본 텍스트의 여러 전형을 다루지 않기 때문에 전체적인 일관성이 떨어집니다. 특정 전형에 대한 설명이 주를 이루고 있어 다른 전형과의 연결이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 부분이 많습니다. 특히 전형의 세부 사항이 잘못 전달되고 있으며, 원본 텍스트에서 언급된 다른 전형의 변화가 누락되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 여러 품질 차원에서 부족함을 보이고 있습니다. 사실성, 일관성, 정확성 모두 낮은 점수를 받고 있으며, 전반적으로 원본 텍스트의 내용을 잘 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 특정 전형에 대한 정보만을 제공하고 있어 의미적으로 완전하지 않습니다. 원본 텍스트의 맥락을 충분히 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 일부 복잡한 표현이 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>0.7321601468804014</v>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>2024학년도에 전형 요소 변화가 있는 전형은 학생부종합(성인학습자(정원내·외)전형)입니다. 이 전형의 서류 평가 영역별 세부 평가 기준에서, 공동체역량, 학업역량, 전공적합성 모두 변화가 있었습니다.
+- **공동체역량**은 협업능력으로 변경되었습니다.
+- **학업역량**은 학업에 대한 흥미 및 주도적 노력 수업시간 적극적 참여 학업에 대한 성취정도 학년별 성적추이로 세부 평가 기준이 변경되었습니다.
+- **전공적합성**은 지원전공(계열) 관련 활동과 경험 지원전공(계열) 관련 학업의지 학교생활의 적극적 참여로 세부 평가 기준이 변경되었습니다.
+위와 같이 2024학년도에 전형 요소 변화가 있는 전형은 학생부종합(성인학습자(정원내·외)전형)입니다.</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 실기 비중이 70%라는 사실을 올바르게 전달하고 있습니다. 추가적으로 수능 비중에 대한 정보도 포함되어 있어 사실성을 높입니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 실기 비중에 대한 정보가 서로 충돌하지 않습니다. 모든 정보가 조화롭게 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 실기 비중에 대한 질문에 대한 적절한 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 매끄럽습니다. 전반적으로 유창한 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 연결되어 있습니다. 독자가 쉽게 이해할 수 있도록 잘 정리되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완벽하게 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 내용을 파악할 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>0.8279405514863314</v>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서 실기 비중은 70%입니다. 이는 전형요소 반영비율에서 수능이 30%, 실기가 70%로 설정되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 세부 전공 목록이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 질문에 대한 직접적인 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지합니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>0.8871401407670889</v>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 라이프융합학부는 세부 전공으로 스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학을 포함하고 있습니다. 이 정보는 제공된 문맥에서 직접 추출한 내용입니다.</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 '태권도학과'를 포함하고 있지만, 원본 텍스트에는 '체육학과'와 '레저스포츠학과'만 언급되어 있습니다. 따라서 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, '태권도학과'라는 정보가 추가되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사 일정과 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 정보인 학과 목록과는 다소 차이가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: '태권도학과'라는 잘못된 정보가 포함되어 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 큰 문제가 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 관련된 정보를 제공하지만, 원본 텍스트의 의미와는 다소 어긋나는 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확하게 전달됩니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>0.6490888522883094</v>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사에 참여해야 하는 학과는 레저스포츠학과와 태권도학과입니다. 이들 학과는 가군 실기/실적(일반학생전형)으로 모집되며, 실기고사는 2024년 1월 16일에 진행됩니다.
+참고로, 해당 일정은 다음과 같습니다:
+- **일정**: 2024. 01. 16.(화)
+- **비고**: 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후에 입학안내 홈페이지에서 확인 가능합니다.
+따라서, 레저스포츠학과와 태권도학과를 지원하는 학생들은 이 일정을 참고하여 준비하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교의 실기/실적 위주 전형에 대한 정확한 정보를 제공하지 않고, 실제 지원 가능한 학과 목록과는 전혀 다른 학과를 언급하고 있습니다. 원본 텍스트에 명시된 학과들은 포함되지 않았으며, 잘못된 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 학과에 대한 정보를 제공하고 있습니다. 원본 텍스트의 내용과 상충하는 정보가 포함되어 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 실기/실적 위주 전형에 대한 질문에 대한 답변을 시도하고 있지만, 제공된 정보가 원본 텍스트와 관련이 없고, 주제에서 벗어난 내용이 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원본 텍스트와의 관련성이 떨어져 전체적인 일관성이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 제공된 정보가 부정확하여 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문장이 명확하고 이해하기 쉬운 구조로 되어 있지만, 내용의 정확성과 관련성 부족으로 인해 전체적인 이해도가 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>0.5292593897866676</v>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형인 '경기실적우수자전형'은 주로 특정 학과에 적용됩니다. 제공된 정보를 바탕으로, 실기/실적 위주 전형을 지원할 수 있는 학과는 ICT융합공과대학의 게임공학과와 영화학부가 해당될 가능성이 높습니다.
+게임공학과의 경우:
+- 모집인원: 3명
+- 지원인원: 16명
+- 경쟁률: 5.33
+영화학과의 경우:
+- 모집인원: 5명
+- 지원인원: 11명
+- 경쟁률: 2.20
+이 두 학과는 실기/실적 위주 전형을 통해 지원할 수 있는 학과로 보입니다. 그러나 정확한 정보를 얻기 위해서는 동의대학교의 공식 웹사이트(https://ipsi. deu.ac.kr/main.do)를 참조하시거나, 대학 측에 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 전공 목록을 정확하게 반영하고 있으며, 추가적인 설명도 원본의 내용을 잘 보완하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 제공되는 전공에 대한 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 전공에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 연결되어 있으며, 전공에 대한 설명이 명확하게 전달됩니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>0.898773932405752</v>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부에서는 다음과 같은 전공을 제공하고 있습니다.
+1. 스타트업 창업 투자학
+2. 뷰티 비즈니스학 
+3. 라이프 생활 문화학
+위와 같이 3가지의 전공을 제공하고 있으며, 이는 학생들이 다양한 삶의 영역에서 비즈니스를 운영하거나 이해할 수 있는 능력을 키울 수 있도록 설계되었습니다.</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다는 사실을 정확하게 반영하고 있습니다. 그러나 농어촌학생전형에 대한 언급이 없어서 약간의 정보가 누락되었습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 일반학생전형에 대한 정보가 잘 전달되고 있습니다. 다만, 농어촌학생전형에 대한 정보가 누락되어 있어 완전한 일관성은 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 질문에 대한 적절한 답변을 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 농어촌학생전형에 대한 언급이 없어서 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 사실을 정확하게 반영하고 있지만, 농어촌학생전형에 대한 정보가 누락되어 있어 약간의 정확성 부족이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 정보의 누락으로 인해 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합합니다. 그러나 농어촌학생전형에 대한 언급이 없어서 의미의 완전성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 전달됩니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>0.703354474570227</v>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>你是特殊目的高中学生，可以申请동义大学的一般学生入学类型。
+특수목적 고등학교 학생인 경우, 동의대학교의 일반학생전형으로 지원이 가능합니다. 예를 들어, 국제고, 외국어고, 과학고 등은 모두 일반학생전형으로 지원할 수 있습니다.
+만약 다른 질문이나 자세한 정보가 필요하다면, 제공된 링크를 참조하거나 추가로 문의해주세요: https://ipsi. deu. ac. kr/main. do</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 중어중국학과의 모집 인원인 32명을 언급하고 있지만, 영어영문학과, 일본학과, 문헌정보학과의 모집 인원에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 중어중국학과의 모집 인원에 대한 정보를 제공하지만, 다른 학과에 대한 정보는 원본 텍스트와 일치하지 않으며, 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련이 있으며, 중어중국학과에 대한 정보를 제공하지만, 다른 학과에 대한 정보는 주제와 관련이 적습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 논리적인 흐름을 가지고 있으며, 중어중국학과에 대한 정보가 잘 연결되어 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 중어중국학과의 모집 인원에 대한 정보는 정확하지만, 다른 학과에 대한 정보는 원본 텍스트와 일치하지 않으므로 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평균적인 성과를 보이며, 일부는 잘 수행되었지만, 사실성과 일관성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 중어중국학과에 대한 정보는 적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 정보가 명확하게 전달됩니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>0.7706098643214433</v>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 확인해보겠습니다.
+- 중어중국학과 - 교직: 정원 내 모집 인원은 32명입니다.
+- 영어영문학과 - 교직: 정원 내 모집 인원은 0명입니다.
+- 일본학과 - 교직: 정원 내 모집 인원은 1명입니다.
+- 문헌정보학과 - 교직: 정원 내 모집 인원은 0명입니다.
+이 중에서 가장 많이 모집하는 학과는 **중어중국학과 - 교직**으로, 정원 내 모집 인원이 32명입니다.</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 특수목적고등학교 출신자가 동의대 학생부교과 농어촌학생전형으로 지원할 수 없다는 사실을 완전히 반대하는 내용을 담고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공하고 있습니다. 원문에서는 특수목적고등학교 출신자가 지원할 수 없다고 명시하고 있는데, 생성된 응답은 지원 가능하다고 주장하고 있습니다. 이는 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하고 있으며, 관련된 추가 정보를 포함하고 있습니다. 따라서 주제와 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 따라서 일관성 점수는 중간 정도입니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 완전히 반대되는 내용을 담고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성과 일관성에서 큰 문제를 가지고 있지만, 관련성과 유창성은 어느 정도 유지하고 있습니다. 그러나 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 완전히 상반되는 내용을 담고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 쉽지만, 내용의 부정확성으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>0.6192056352381736</v>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>네, 특수목적고등학교 학생이더라도 동의대학교의 학생부교과 농어촌학생전형으로 지원 가능합니다. 전형 자격에 따라 일반고등학교나 자율고등학교 등 다양한 고등학교 출신 학생들이 지원할 수 있으며, 특수목적고등학교 출신 학생들도 포함됩니다.
+만약 추가로 궁금한 사항이 있으시다면 https://ipsi. deu. ac. kr/main. do를 참조하시거나 문의해주세요.</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 소프트웨어공학부 합격자 평균 성적에 대한 정보가 제공되지 않았다는 사실을 언급하고 있지만, 추가로 제공된 정보(309.71, 3.71 등)는 원본 텍스트에 포함되어 있지 않은 내용으로, 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있어 일관성이 부족합니다. 원본 텍스트는 평균 성적에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 다른 성적 정보를 추가하여 모순을 일으킵니다.
+3. Relevance Score (1-5): 4  
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 불필요한 추가 정보를 포함하고 있어 약간의 관련성 저하가 있습니다. 그러나 기본적으로 질문에 대한 답변을 제공하고 있습니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 일관된 주제를 유지하지 못하고 있습니다. 추가된 정보가 주제를 흐트러뜨리고 있습니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 추가된 정보는 정확하지 않거나 출처가 불분명합니다. 원본 텍스트의 내용을 정확히 반영하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받고 있으며, 사실성, 일관성, 정확성에서 큰 문제를 보이고 있습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 대체로 일치하지만, 추가된 정보로 인해 의미가 왜곡될 수 있습니다. 따라서 적절성 점수가 낮아졌습니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 정보로 인해 혼란을 줄 수 있습니다. 그러나 기본적인 내용은 명확하게 전달되고 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>0.7389041475056538</v>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어공학부의 합격자 평균 성적 정보가 제공되지 않았습니다. 다른 관련 정보는 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 309.71입니다.
+- 영어 등급의 평균은 3.71입니다.
+만약 소프트웨어공학부 합격자들의 평균 성적을 알고 싶다면, 해당 정보를 제공하는 공식 웹사이트나 관련 문서를 확인해보시는 것이 좋습니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 참조하여 자세한 내용을 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않다는 원본 텍스트와 상반되는 내용을 담고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 완전히 모순되는 정보를 제공하고 있습니다. 원본 텍스트는 평균 성적에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 구체적인 성적 수치를 제시하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 정보가 없음을 알리고 있는데, 생성된 응답은 구체적인 성적 정보를 제공하여 주제에서 벗어나 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관계에서 비일관성이 존재합니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 다릅니다. 원본 텍스트는 평균 성적에 대한 정보가 없다고 명시하고 있으므로, 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 따라서 전체적인 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 정보를 제공합니다. 따라서 의미 적합성 점수는 매우 낮습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 내용의 부정확성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>0.5234135071924407</v>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 330.11입니다. 또한, 영어 등급의 평균은 3.30이며, 수능 4개 영역 등급의 평균은 4.12입니다.</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 발표 일정과 일부 세부 사항을 잘못 전달하고 있습니다. 예를 들어, 최초 합격자 등록 날짜가 원본 텍스트에 명시되어 있지 않으며, 충원 합격자 발표 시간도 잘못 기재되어 있습니다. 이러한 이유로 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트의 발표 일정과 세부 사항이 다르게 표현되어 있어, 서로 모순되는 정보가 포함되어 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 추가된 정보(등록 기간 등)가 원본 텍스트에 포함되어 있지 않아 약간의 불일치가 있습니다. 그러나 전반적으로 주제와 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 개선이 필요합니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 일관된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 논리적 흐름이 약간 깨집니다. 정보가 명확하게 연결되지 않는 부분이 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정확한 정보를 반영하지 못하고 있으며, 잘못된 날짜와 세부 사항이 포함되어 있습니다. 이로 인해 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 품질 차원에서 생성된 응답이 원본 텍스트와의 불일치로 인해 전반적으로 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 잘못된 정보로 인해 의미 전달이 완벽하지 않습니다. 일부 내용은 적절하지만, 전체적으로는 부적절한 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확하게 표현되어 있습니다. 그러나 일부 정보의 부정확성으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>0.8707219491153702</v>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>2024년 합격자 발표 일정은 다음과 같습니다.
+1. 최초 합격자 발표 및 등록 : 2024년 2월 2일 금요일 오후 2시에 홈페이지에서 개별 조회 가능합니다.
+2. 최초 합격자 등록 : 2024년 2월 7일 수요일부터 13일 화요일까지 (은행 마감 시간 내) 입금이 가능합니다.
+3. 충원 합격자 1차 발표 및 등록 : 각각 2024년 2월 14일 수요일 오전 9시와 오후 4시에 홈페이지에서 개별 조회가 가능하며, 이날 오후 4시까지 입금이 가능합니다.
+4. 충원 합격자 2차 발표 및 등록 : 각각 2024년 2월 15일 목요일 오전 9시와 오후 4시에 홈페이지에서 개별 조회가 가능하며, 이날 오후 4시까지 입금이 가능합니다.
+5. 충원 합격자 3차 이후 발표 및 등록 : 각각 2024년 2월 15일 목요일 저녁 7시부터 20일 화요일 오후 6시까지 개별 전화 통보를 통해 이루어집니다.
+이상의 일정을 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 면접고사 일정에 대한 구체적인 날짜가 포함되어 있지 않다고 주장하지만, 원본 텍스트에는 명확하게 "2024. 01. 20.(토)"라는 날짜가 언급되어 있습니다. 따라서 사실과 일치하지 않으며, 여러 가지 부정확한 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 명확한 날짜를 제공하고 있지만, 생성된 응답은 그 날짜가 포함되어 있지 않다고 잘못 언급하고 있습니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 면접고사 일정에 대한 질문에 대한 답변으로 보이지만, 원본 텍스트의 핵심 정보를 무시하고 있습니다. 따라서 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 품질이 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 논리적인 흐름이 약간 손상되었습니다. 그러나 전반적으로는 이해할 수 있는 수준입니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 면접고사 일정에 대한 정확한 정보를 제공하지 않고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘못 이해하고 있으며, 적절한 의미 전달이 이루어지지 않았습니다. 그러나 일부 정보는 여전히 관련이 있을 수 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용의 부정확성으로 인해 혼란을 줄 수 있습니다. 따라서 이해 가능성은 보통 수준입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>0.349457580255022</v>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 면접고사의 일정에 대한 구체적인 날짜가 포함되어 있지 않습니다. 면접일정은 일반적으로 입학사정관이 평가를 진행하는 시기에 맞춰 결정됩니다. 따라서, 정확한 날짜와 시간을 알기 위해서는 해당 대학의 공식 웹사이트(https://ipsi. deu. ac. kr/main. do) 또는 학생부종합전형 관련 안내서를 확인하시거나, 입학처에 직접 문의하시는 것이 가장 정확한 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대 한의예과의 최저학력 기준이 없다는 사실을 부정확하게 해석하고 있습니다. 응답에서는 최저학력 기준이 적용될 것으로 추정된다고 언급하고 있지만, 이는 원문과 상충되는 내용입니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문에서는 최저학력 기준이 없다고 명확히 언급하고 있는데, 생성된 응답은 이를 반박하는 내용을 포함하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 한의예과의 최저학력 기준에 대한 정보를 제공하려고 하지만, 원문과의 관련성이 떨어지는 부분이 있습니다. 그러나 추가적인 정보 제공은 긍정적입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 다소 부족합니다. 원문과의 연결이 약해 응답의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 상충되는 내용을 포함하고 있어 정확성이 낮습니다. 최저학력 기준이 없다는 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 응답의 질이 낮습니다. 사실성, 일관성, 정확성에서 모두 부족한 점이 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문과의 일치성이 떨어져 일부 내용이 부적절하게 해석되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 전반적으로 이해하기 쉬운 내용이지만, 원문과의 불일치로 인해 혼란을 줄 수 있는 부분이 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>0.5284750179941415</v>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 한의예과의 최저학력기준에 대한 내용이 직접적으로 언급되어 있지 않습니다. 하지만, 전형요소 반영비율에서 "나군 수능(일반학생전형) 한의예과(수학(미적분/기하),수학(확률과 통계))"라는 항목을 확인할 수 있습니다. 이 항목에서는 수능 최저기준이 언급되어 있지 않으므로, 일반적으로 한의예과의 경우 수능 최저학력 기준이 적용될 것으로 추정됩니다.
+더 정확한 정보를 얻기 위해서는 공식 입학 안내 홈페이지 (http://ipsi. deu. ac. kr 또는 http://www. uwayapply. com)를 참조하시거나, 직접 학교 입학관리팀에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 무시하고, 일반적인 수능 최저학력 기준에 대한 정보를 제공하고 있습니다. 이는 원문과 상충되는 내용으로, 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 원문과 일치하지 않으며, 일반적인 기준에 대한 설명을 추가하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 수능 최저학력 기준에 대한 일반적인 정보를 제공하지만, 원문에서 요구하는 특정 정보에 대한 직접적인 답변이 부족합니다. 따라서 관련성 점수가 중간 정도입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 연결되어 있습니다. 그러나 원문과의 불일치로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 잘못 전달하고 있으며, 이는 정확성 점수를 낮춥니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 사실성과 일관성, 정확성이 낮아 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문과의 불일치로 인해 의미 전달이 완벽하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 내용으로 구성되어 있으나, 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>0.4997733768876503</v>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>정시 전형으로 지원할 때 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>2024년도에 대한 정확한 수능 최저학력 기준 정보가 제공되지 않았습니다. 일반적으로 수능 최저학력 기준은 대학마다 다르며, 지원하는 학과와 전형 방식에 따라 달라질 수 있습니다.
+이 정보를 확인하려면 공지된 전형일정이나 입학처 홈페이지를 참조하시거나, "https://ipsi. deu. ac. kr/main. do" 링크에서 최신 정보를 확인해보시는 것이 좋습니다. 해당 페이지에서는 각 학과별 모집인원, 지원 자격 조건 등에 대한 자세한 내용을 확인하실 수 있습니다.
+특히 정시 전형의 경우, 수능 최저학력 기준이 적용되므로 입학처 홈페이지에서 공식 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 1차 충원합격자 발표일과 2차 충원합격자 발표일을 누락하고, 3차 이후 발표일에 대한 정보는 포함하고 있지만, 1차 발표일이 잘못된 정보로 제시되었습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정보가 일치하지만, 1차 발표일이 잘못 기재되어 있어 일관성이 떨어집니다. 전체적으로는 일관성이 있지만, 중요한 날짜의 오류로 인해 점수는 3입니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 충원합격자 발표 일정에 대한 질문에 직접적으로 관련된 정보를 제공합니다. 따라서 관련성 점수는 5입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 약간의 어색한 표현이 있어 점수는 4입니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있어 점수는 4입니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 1차 발표일이 잘못 기재되어 있어 정확성 점수는 3입니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 응답은 여러 차원에서 양호하지만, 사실성과 정확성에서의 문제로 인해 점수는 4입니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 질문의 맥락에 잘 맞습니다. 그러나 일부 정보의 부정확성으로 인해 점수는 4입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 복잡하게 느껴질 수 있어 점수는 4입니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>0.8248354118160303</v>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 충원합격자 발표 일정은 2024년 2월 15일(목) 09:00입니다.
+이 정보는 전형일정에서 확인할 수 있으며, "전형일정에서 내용은 합격자 발표 및 등록금 납부 충원 합격자 3차 이후 (개별 전화 통보) 발표이며, 일정은 2024. 02. 15.(목) 19:00~ 2024. 02. 20.(화) 18시까지"라고 명시되어 있습니다.
+하지만 주의할 점은 이 발표는 개별 전화 통보를 통해 이루어진다는 것입니다. 따라서 정확한 시간을 알기 위해서는 개별적으로 연락을 받으실 필요가 있습니다.</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 충원합격자 발표 일정에 대한 구체적인 정보를 제공하지 않고, 일반적인 안내만 포함하고 있습니다. 원본 텍스트의 구체적인 날짜와 시간 정보가 누락되어 있어 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 충원합격자 발표 일정에 대한 구체적인 정보를 제공하지 않고 있습니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 추가합격자 발표에 대한 정보를 제공하려고 하지만, 원본 텍스트의 구체적인 일정과는 관련이 적습니다. 다소 관련성이 있지만, 핵심 정보를 놓치고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 부족하여 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않으며, 정확한 정보를 제공하지 않습니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원본 텍스트의 맥락과는 다소 동떨어져 있습니다. 따라서 의미적 적합성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 원본 텍스트와의 관련성이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>0.4229392431571955</v>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>2024학년도 주요 변경사항에서 추가합격자 발표에 대한 정보가 직접 제공되지 않았습니다. 추가합격자 발표 일정은 일반적으로 대학의 입시 홈페이지를 통해 공지되며, 정확한 날짜는 아직 알려져 있지 않습니다.
+추가합격자 발표일을 확인하려면, 해당 대학의 입시 홈페이지(https://ipsi. deu. ac. kr/main. do)를 방문하여 최신 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 추가 모집에 대한 정보가 없다고 주장하지만, 원본 텍스트에서는 추가 모집에 대한 명확한 설명이 포함되어 있습니다. 따라서 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 원본에서 제공된 정보와 상충하는 내용을 포함하고 있습니다. 
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 관련이 있지만, 원본의 핵심 내용을 무시하고 추가 모집에 대한 정보가 없다고 언급하여 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘못 전달하고 있으며, 중요한 정보를 누락하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았으며, 전반적으로 원본 텍스트와의 일치성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원본 텍스트의 맥락을 충분히 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 원본 텍스트와의 관련성이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>0.4042332407361571</v>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 추가 모집에 대한 내용이 명시되어 있지 않습니다. 추가 모집에 대한 자세한 정보를 얻으려면 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 평생학습자전형에 대한 정보를 제공하고 있지만, 일부 세부사항이 원본 텍스트와 일치하지 않거나 누락된 정보가 있습니다. 예를 들어, 지원자격에 대한 구체적인 내용이 부족하고, 제출서류에 대한 설명이 원본과 다소 차이가 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 일부 정보를 포함하고 있지만, 전반적으로 일관성이 떨어집니다. 특히, 지원자격과 제출서류에 대한 설명이 원본과 다르게 서술되어 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 평생학습자전형에 대한 정보를 다루고 있어 관련성이 높지만, 원본 텍스트의 특정 세부사항을 충분히 반영하지 못하고 있습니다. 따라서 관련성은 높지만 완전하지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장 구조가 다소 복잡하여 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 정보가 누락되어 있어 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 세부사항과 일치하지 않는 부분이 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 평균적인 품질을 보이고 있으며, 특히 사실성과 일관성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 세부사항이 누락되어 있어 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>0.6392128651910652</v>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형은 대학 입시에서 성인 학습자를 위한 전형으로, 다양한 경력과 경험을 가진 성인들이 대학 진학의 기회를 얻을 수 있도록 설계되었습니다. 이 전형에서는 학생부종합평가와 면접평가가 이루어집니다.
+1. **학생부종합평가**:
+   - **평균 등급 평준화**: 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 등급 평균을 기반으로 동점자 처리가 이루어집니다.
+   - **정원 외 동점자 처리기준**:
+     - 순위 1: 면접고사 성적 상위자
+     - 순위 2: 서류평가 공동체역량 영역 성적 상위자
+     - 순위 3: 서류평가 전공적합성 영역 성적 상위자
+2. **면접평가**:
+   - **평균 등급 평준화**: 학업역량과 전공적합성을 평가합니다.
+   - **정원 외 동점자 처리기준**:
+     - 순위 1: 면접고사 성적 상위자
+     - 순위 2: 서류평가 공동체역량 영역 성적 상위자
+     - 순위 3: 서류평가 전공적합성 영역 성적 상위자
+3. **제출서류**:
+   - **고교 졸업(예정)자**: 고교 학교생활기록부 1부 (온라인 제공 동의 필요)
+   - **검정고시 출신자**: 검정고시 합격증서 사본, 검정고시 성적증명서
+   - **외국고교 졸업(예정)자**: 공증받은 외국고교 졸업(예정)증명서, 공증받은 외국고교 성적증명서
+4. **지원자격**:
+   - **산업체 적용범위**: 국가·지방자치단체 및 공공단체 (소속 직원의 경우), 근로기준법 제11조에 의거 상시근로자 5인(사업주 포함) 이상 사업체, 4대 보험 중 1개 이상 가입 사업체
+   - **재직기간**: 2024년 3월 1일 기준으로 총 재직기간이 3년 이상 (예정)
+5. **전형요소 반영비율**:
+   - **학생부종합(평생학습자전형)**: 서류 70%, 면접 30%
+   - **학생부종합(성인학습자(정원내·외)전형)**: 서류 70%, 면접 30%
+6. **면접평가**:
+   - **평균 등급 평준화**: 학업역량과 전공적합성을 평가합니다.
+   - **면접시간**: 1인당 10분 이내
+   - **면접방법**: 입학사정관 2인이 수험생을 대상으로 개별적으로 평가하며, 블라인드 면접 방식으로 진행됩니다.
+이러한 정보를 바탕으로 평생학습자전형에 지원할 수 있습니다. 자세한 내용은 각 대학의 입시 홈페이지에서 확인하시기 바랍니다. (https://ipsi. deu. ac. kr/main. do)</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 평생학습자전형의 지원자격에 대한 구체적인 내용을 추가하고 있지만, 원본 텍스트에서 명시된 "고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자"라는 기본적인 지원 자격을 포함하지 않고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 포함하고 있습니다. 원본 텍스트는 특정 자격 요건을 명시하고 있지만, 생성된 응답은 다양한 학교 유형에 대한 지원 가능성을 언급하며, 이는 원본의 내용과 일치하지 않습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 평생학습자전형의 지원 자격에 대한 정보를 제공하지만, 원본 텍스트의 핵심 내용인 "고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자"에 대한 언급이 부족하여 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족하여 일관성이 떨어집니다. 각 학교 유형에 대한 지원 가능성을 나열하는 방식이 다소 산만하게 느껴질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 사실을 누락하고 있으며, 잘못된 정보가 포함되어 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답이 원본 텍스트와 일치하지 않으며, 사실성, 일관성, 정확성 모두 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 평생학습자전형에 대한 정보를 제공하지만, 원본 텍스트의 의미와 맥락을 완전히 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있지만, 정보의 양이 많아 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>0.5974505840303255</v>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원 자격에서는 일반고와 자율고는 지원이 가능합니다. 특수목적고의 과학고, 국제고, 외국어고, 예술고, 체육고, 마이스터고는 모두 지원이 가능하며, 특성화고의 특성(직업)과 특성(대안)도 지원 대상입니다. 영재학교와 기타의 학력인정고, 방송통신고, 각종학교, 검정고시, 외국고는 평생학습자전형에서 지원이 불가능합니다.</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보가 아닌, 실기고사 준비 방법과 관련된 내용을 포함하고 있습니다. 이는 원본 텍스트의 핵심 정보를 왜곡하고 있으며, 원본의 사실과는 전혀 관련이 없습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 주제를 다루고 있습니다. 원본 텍스트는 입실시간에 대한 정보만을 제공하는 반면, 생성된 응답은 실기 준비에 대한 정보로 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 실기고사 대기실 및 입실시간에 대한 정보인데, 생성된 응답은 전혀 다른 내용을 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부적절성으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보가 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 주제가 완전히 다릅니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 이해하기 쉬운 구조를 가지고 있지만, 내용이 원본과 관련이 없기 때문에 전체적인 이해도는 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>0.5028054781519389</v>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 실기고사는 모집단위에 따라 다르게 준비해야 합니다. 예를 들어, 시각디자인, 산업디자인, 공예디자인의 경우 기초디자인과 사고의 전환을 준비하며, 화지크기는 켄트지3절이며 시간은 5시간입니다.
+체육학과에서는 실기종목이 제자리 멀리뛰기, 메디신볼 던지기, Z-런으로 나뉘며 각각의 종목별 배점(비율)도 다르게 주어집니다. 따라서 모집단위에 따라 준비물과 시간 등이 달라질 수 있으므로 정확한 정보를 얻기 위해서는 해당 모집단위의 공식 웹사이트나 입학처와 직접 문의하는 것이 좋습니다.
+https://ipsi. deu. ac. kr/main. do 를 방문하여 더 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보가 아닌, 체육학과의 실기고사 내용에 대한 설명을 포함하고 있습니다. 원본 텍스트의 핵심 정보인 입실시간과 대기실에 대한 내용이 전혀 반영되지 않았고, 잘못된 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 서로 다른 주제를 다루고 있습니다. 원본 텍스트의 정보와 생성된 응답의 내용이 상충합니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 실기고사 대기실 및 입실시간에 대한 정보인데, 생성된 응답은 실기고사 내용에 대한 설명으로 전혀 관련이 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용이 원본 텍스트와 관련이 없기 때문에 전체적인 맥락에서의 유창성은 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보가 포함되어 있습니다. 원본 텍스트의 핵심 사실이 누락되었습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원본 텍스트와의 관계가 전혀 없기 때문입니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 원본 텍스트와의 관련성이 없기 때문에 전체적인 이해도는 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>0.3516953375834032</v>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 다음과 같은 모집단위별로 실시됩니다:
+1. **제자리 멀리뛰기**:
+   - 모집단위: 체육학과
+2. **메디신볼 던지기**:
+   - 모집단위: 체육학과
+3. **Z-런**:
+   - 모집단위: 체육학과
+이러한 실기고사는 각각의 모집단위에 따라 실시되며, 준비물과 화지크기는 공통적으로 기초디자인이나 사고의 전환 등으로 동일하게 적용됩니다. 시간은 5시간이며, 실제 주제는 당일 추첨을 통해 결정됩니다.
+따라서 체육학과의 실기고사는 해당 모집단위에 따라 특정 장소에서 진행되며, 구체적인 장소는 대회나 시험장으로 이동해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수시 충원합격자 발표에 대한 잘못된 정보를 포함하고 있습니다. 원문에서는 전화로 개별 연락을 하지 않는다고 명시하고 있지만, 생성된 응답에서는 개별 전화 통보가 이루어질 것이라고 언급하고 있습니다. 이는 원문과 상충하는 내용입니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문에서는 3차 이후에만 개별 전화 통보가 이루어진다고 명시하고 있으나, 생성된 응답에서는 발표 이후에 개별 전화 통보가 이루어질 것이라고 하여 모순이 발생합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 수시 충원합격자 발표에 대한 정보를 제공하고 있으나, 원문에서 강조하는 전화 통보에 대한 내용과는 다소 차이가 있습니다. 그러나 발표 일정에 대한 정보는 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 발표 일정과 관련된 정보를 제공하지만, 전화 통보에 대한 내용이 원문과 상충하여 논리적인 흐름이 약간 깨집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 일치하지 않는 정보를 포함하고 있습니다. 특히, 전화 통보에 대한 내용이 잘못된 정보입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 일치성이 부족하며, 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 발표 일정에 대한 정보를 제공하지만, 전화 통보에 대한 잘못된 해석이 포함되어 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>0.5971713150519935</v>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지 충원합격자 발표가 이루어집니다. 이 시점 이후에 합격자에게 개별 전화 통보가 이루어질 것으로 보입니다. 하지만 정확한 절차와 방법은 공지된 일정과 입학 안내 홈페이지를 참고하시거나, https://ipsi. deu. ac. kr/main. do 링크에서 확인하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수시모집 결과에 대한 정보가 포함되어 있지 않다는 점을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 수시모집 결과에 대한 정보가 없다는 점에서 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 수시모집 결과에 대한 정보를 찾는 방법을 제시하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 흐름이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>0.8349191516160178</v>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 수시모집 결과에 대한 정보가 제공된 문서 내에서 직접적으로 언급되어 있지 않습니다. 제공된 정보 중에서는 학과 분리, 학과 명칭 변경 등 주요 변경사항들이 나와 있지만, 특정 학과의 수시모집 결과는 포함되어 있지 않습니다.
+만약 2023학년도 경찰행정학과의 수시모집 결과를 알고 싶다면, "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 최신 정보를 확인하거나, 입학처에 직접 문의하는 것이 가장 정확한 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능에 응시하지 않은 학생도 지원이 가능하다고 주장하지만, 원문에서는 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없다고 명확히 언급하고 있습니다. 따라서 사실과 완전히 상반된 내용을 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문이 수능 응시 여부에 따라 지원이 불가능하다고 명시한 반면, 생성된 응답은 수능에 응시하지 않은 학생도 지원할 수 있다고 주장하여 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 포함하고 있지만, 주된 질문에 대한 답변이 아닌 추가적인 정보와 예시를 제공하고 있습니다. 원문에서의 핵심 내용과는 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 중국어가 포함되어 있어 한국어 문맥에서 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 주제를 다루고 있지만, 원문과의 연결이 부족하여 일관된 흐름이 떨어집니다. 특히, 중국어 부분이 포함되어 있어 한국어 문맥에서의 일관성이 저하됩니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 완전히 반대되는 내용을 포함하고 있어 정확성이 매우 낮습니다. 원문에서의 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 원문과의 관계가 전혀 맞지 않으며, 정보의 신뢰성이 결여되어 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 의미적으로 부적절한 주장을 포함하고 있어 원문의 맥락과 일치하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 이해할 수 있는 내용이지만, 원문과의 불일치로 인해 혼란을 초래할 수 있습니다. 특히, 중국어 부분이 포함되어 있어 이해를 더욱 어렵게 만들 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>0.4049553473239101</v>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>2024학년도에 수능 응시하지 않은 학생도 지원이 가능합니다. 전형별로 다양한 지원 자격이 있으며, 일부 전형에서는 수능 응시 여부와 관계없이 지원이 가능한 경우가 있습니다.
+특히, 학생부종합 평가를 기반으로 하는 전형에서는 수능 점수보다는 학생부 성적과 면접 등을 통해 지원자의 적합성을 판단합니다. 따라서 수능 응시 여부와 관계없이 지원이 가능한 전형들이 있습니다.
+具体的来说，2024年，即使没有参加高考的学生也可以申请。每年的招生标准会有所不同，但通常有一些基于学生档案综合评估的招生类型，在这些类型中，高考成绩并不是决定性因素，而是通过学生的学业成绩和面试等来判断其是否适合。
+为了获取更详细的信息，请访问以下网站进行确认：“https://ipsi. deu. ac. kr/main. do”。</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지나도 정시 지원이 가능하다는 원문과 상반된 내용을 담고 있습니다. 원문에서는 모든 고등학교 졸업생이 정시 지원이 가능하다고 명시하고 있지만, 생성된 응답은 일반적으로 지원할 수 없다고 주장하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문은 고등학교 졸업 시기와 관계없이 지원할 수 있다고 명시하고 있으나, 생성된 응답은 10년이 지난 경우 지원할 수 없다고 주장하여 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 주된 질문에 대한 직접적인 답변을 제공하지 않고 있습니다. 원문에서 제시한 정보와는 다르게, 특정 대학의 전형 안내를 확인하라는 내용이 포함되어 있어 다소 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 연결된 구조를 가지고 있으며, 각 문장이 자연스럽게 이어집니다. 그러나 원문과의 불일치로 인해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 정반대의 내용을 담고 있어 정확성이 매우 낮습니다. 고등학교 졸업 후 10년이 지나도 정시 지원이 가능하다는 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 의미적으로 상충하는 내용을 담고 있어 적절하지 않습니다. 원문에서의 의미를 왜곡하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있으나, 내용의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>0.6332539859443969</v>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>2023년 현재의 입학전형 기준으로는 고등학교를 졸업한 지 10년이 지났다고 하더라도, 일반적으로 정시모집에 지원할 수 있는 기회는 없습니다. 대다수의 대학은 고등학교 졸업 후 4년 이내에 입학하는 것을 원칙으로 하고 있습니다.
+하지만 일부 특별한 경우나 전형에서 제한이 있을 수 있으므로, 동의대학교의 정시모집 전형 안내를 확인해보시는 것이 좋겠습니다. 특히 농어촌학생전형과 같은 특별전형에서는 고등학교 졸업 후 10년이 지났다고 하더라도 지원할 수 있는 경우가 있을 수 있습니다.
+따라서, 동의대학교의 정시모집 전형 안내를 확인하시거나, 입학처에 직접 문의해보시는 것이 가장 정확한 답변을 얻는 방법입니다. "https://ipsi. deu.ac.kr/main.do" 링크에서 입학처 웹사이트로 접속하여 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주요 사실을 잘 반영하고 있으며, 일정과 세부사항이 대부분 정확하게 전달되었습니다. 그러나 "마감시간은 각 모집단위별로 다릅니다."라는 문장은 원본 텍스트에 명시된 내용을 다소 모호하게 표현하고 있어 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트와 일관되게 정보를 제공하고 있습니다. 다만, 일부 세부사항에서 원본 텍스트의 표현과 약간의 차이가 있어 완전한 일관성은 부족합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 잘 다루고 있으며, 관련성이 매우 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 몇몇 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목 간의 흐름이 자연스럽습니다. 그러나 일부 문장 간의 연결이 더 매끄럽게 이루어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 대체로 정확하게 반영하고 있습니다. 그러나 일부 세부사항에서 약간의 차이가 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으며, 전반적으로 높은 품질을 유지하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있습니다. 그러나 일부 표현에서 약간의 차이가 있어 완전한 적합성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 몇몇 문장에서 약간의 혼란을 줄 수 있는 표현이 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>0.7620759444614886</v>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집일정을 살펴보겠습니다.
+1. **모집인원 확정 공고**: 2024년 1월 2일(화) 입학안내 홈페이지에서 공고됩니다.
+2. **원서접수 (인터넷)**: 2024년 1월 3일(수)부터 6일(토)까지 원서를 접수하며, 마감시간은 각 모집단위별로 다릅니다. 
+   - 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과는 18시까지입니다.
+3. **서류 제출 (제출서류가 있는 경우)**: 원서접수와 동일한 기간이며, 서류 제출 마감시간은 17시까지입니다.
+4. **&lt;가&gt;군 실기고사**: 레저스포츠학과와 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 확인 가능합니다.
+5. **&lt;나&gt;군 실기고사**: 디자인조형학과 (시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 동일하게 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 확인 가능합니다.
+6. **합격자 발표 및 등록금 납부**: 
+   - 최초 합격자 발표는 2024년 2월 2일(금) 14:00에 이루어집니다.
+   - 최초 합격자 등록은 2024년 2월 7일(수)부터 13일(화)까지 (은행마감시간 내)입니다.
+   - 충원 합격자 발표 및 등록은 2차로 이루어지며, 각각의 일정은 다음과 같습니다:
+     - 1차: 2024년 2월 14일(수) 9:00
+     - 2차: 2024년 2월 15일(목) 9:00
+   - 충원 합격자 3차 이후는 개별 전화 통보로 이루어집니다.
+이러한 일정을 참고하여 원서접수와 서류 제출 등을 진행하시면 됩니다. 자세한 내용은 입학안내 홈페이지를 통해 확인해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 날짜와 절차에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용과 관련이 있으며, 모든 중요한 포인트를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 유창하게 작성되었으나, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>0.8296578310422915</v>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집 일정을 살펴보겠습니다.
+1. **모집인원 확정 공고**: 2024년 1월 2일 (화) 입니다.
+   - 비고는 입학안내 홈페이지 공고입니다.
+2. **원서접수(인터넷)**: 
+   - 일정은 2024년 1월 3일 (수) ~ 2024년 1월 6일 (토), 마감일 18시까지입니다.
+   - 비고는 [http://ipsi. deu. ac. kr] 또는 [http://www. uwayapply. com] 입니다.
+3. **서류 제출**:
+   - 일정은 2024년 1월 3일 (수) ~ 2024년 1월 12일 (금), 마감일 17시까지 도착입니다.
+   - 비고는 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조) 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송입니다.
+4. **&lt;가&gt;군 실기고사**:
+   - 레저스포츠학과, 태권도학과는 2024년 1월 16일 (화)에 실시됩니다.
+   - 비고는 대기실 및 입실시간 안내 2024년 1월 12일 (금) 14:00 이후 입학안내 홈페이지에서 조회입니다.
+5. **&lt;나&gt;군 실기고사**:
+   - 디자인조형학과 (시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일 (수)에 실시됩니다.
+   - 비고는 대기실 및 입실시간 안내 2024년 1월 12일 (금) 14:00 이후 입학안내 홈페이지에서 조회입니다.
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표는 2024년 2월 2일 (금) 14:00에 이루어집니다.
+     - 비고는 *발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)입니다.
+   - 최초 합격자 등록은 2024년 2월 7일 (수) ~ 2024년 2월 13일 (화), 은행마감시간 내에 이루어집니다.
+     - 비고는 *발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)입니다.
+   - 충원 합격자 1차 발표는 2024년 2월 14일 (수) 9:00에 이루어집니다.
+     - 비고는 *발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)입니다.
+   - 충원 합격자 1차 등록은 2024년 2월 14일 (수) 9:00 ~ 16:00에 이루어집니다.
+     - 비고는 *발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)입니다.
+   - 충원 합격자 2차 발표는 2024년 2월 15일 (목) 9:00에 이루어집니다.
+     - 비고는 *발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)입니다.
+   - 충원 합격자 2차 등록은 2024년 2월 15일 (목) 9:00 ~ 16:00에 이루어집니다.
+     - 비고는 *발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)입니다.
+   - 충원 합격자 3차 이후 발표는 2024년 2월 15일 (목) 19:00 ~ 2024년 2월 20일 (화) 18시까지 이루어집니다.
+     - 비고는 *발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)입니다.
+   - 충원 합격자 3차 이후 등록은 개별 전화 통보 시 안내됩니다.
+     - 비고는 *발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)입니다.
+이상이 2024년 동의대학교 정시 모집 일정입니다.</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에서 수능 미응시자가 지원할 수 있다고 주장하고 있지만, 원본 텍스트에서는 수능 성적이 요구되며 수능 미응시자는 지원이 불가능하다고 명확히 언급하고 있습니다. 따라서 사실과 완전히 일치하지 않으며, 여러 가지 부정확한 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 수능 미응시자가 지원할 수 없다고 명시하고 있는데, 생성된 응답은 수능 미응시자가 지원 가능한 전형이 있다고 주장하고 있습니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 정시 모집에 대한 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용인 수능 미응시자의 지원 불가능성을 무시하고 있습니다. 따라서 관련성은 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로는 일관성을 가지고 있지만, 원본 텍스트와의 내용적 불일치로 인해 전체적인 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 반대되는 정보를 포함하고 있습니다. 수능 미응시자가 지원할 수 있다는 주장은 명백한 오류입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>0.6585548539979873</v>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집에서 수능 미응시자도 지원이 가능한 전형은 "학생부종합(평생학습자전형)"입니다. 이 전형은 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자를 대상으로 합니다.
+추가 정보:
+- 모집인원: 17명
+- 모집단위 및 계열: 인문사회과학대학 - 인문사회 - 국어국문학과 - 교직
+이 전형은 수능 미응시자도 지원 가능하며, 학생부 종합 평가를 통해 선발됩니다.</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 전자공학과의 충원 합격이 3차까지 이루어졌다고 주장하지만, 원문에서는 충원 합격 차수에 대한 정보가 없다고 명시하고 있습니다. 또한, 전년도의 충원 합격 인원은 36명이라고 명확히 언급되어 있으나, 생성된 응답에서는 모집 인원과 지원 인원에 대한 잘못된 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서는 충원 합격 차수에 대한 정보가 없다고 하였으나, 생성된 응답에서는 3차까지 이루어졌다고 주장하고 있습니다. 이는 명백한 불일치입니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 전자공학과의 충원 합격에 대한 정보를 제공하고 있으나, 원문에서 요구하는 정보와는 다소 거리가 있습니다. 원문은 충원 합격 차수에 대한 정보가 없다고 명시하고 있기 때문에, 생성된 응답의 정보는 원문과 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 일부 표현이 다소 복잡할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원문과의 연결이 부족하여 일관된 흐름이 떨어집니다. 원문과의 관계를 명확히 하지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 크게 다릅니다. 원문에서는 충원 합격 차수에 대한 정보가 없다고 하였고, 전년도의 충원 합격 인원은 36명이라고 명시되어 있습니다. 그러나 생성된 응답은 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치가 심각하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 부족합니다. 원문에서 제공된 정보와는 다른 내용을 포함하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원문과의 관계가 명확하지 않아 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>0.7323066923097444</v>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>2024학년도 모집단위인 전자공학과의 경우, 충원 합격 (후보순위)이 3차까지 이루어졌습니다. 이 정보는 제공된 문맥에서 전자공학과의 모집 인원 3명과 지원 인원 16명 그리고 경쟁률 5.33에 따른 충원 합격 (후보순위) 3을 통해 확인할 수 있습니다. 다른 단과대학이나 모집단위의 정보는 제공되지 않았습니다. 더 자세한 내용은 "https://ipsi. deu. ac. kr/main. do"를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 동의대학교 입학관리팀의 전화번호를 명시하지 않고 있으며, 이는 원본 텍스트의 핵심 정보를 누락한 것입니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 전화번호를 제공하고 있지만, 생성된 응답은 전화번호가 언급되지 않았다고 주장합니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 동의대학교와 관련된 정보를 제공하려고 하지만, 원본 텍스트의 핵심 정보인 전화번호를 다루지 않기 때문에 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 한국어로 작성된 원본 텍스트와는 다른 언어로 작성되어 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 전화번호에 대한 정보가 전혀 포함되어 있지 않습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 동의대학교에 대한 정보를 제공하려고 하지만, 원본 텍스트의 의미와는 맞지 않으며, 전화번호에 대한 정보가 누락되어 있습니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 이해할 수 있지만, 원본 텍스트의 핵심 정보를 제공하지 않기 때문에 전체적인 이해도가 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>0.5799963209762928</v>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有提到东义大学入学处的电话号码。如果您需要此信息，建议访问东义大学官网或者直接联系学校的招生办公室获取准确的联系方式。更多信息可以参考“https://ipsi. deu. ac. kr/main. do”。</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 전화 통화가 되지 않는 경우에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 "등록 의사가 없는 것으로 간주되어 등록 포기자로 처리된다"는 중요한 사실을 누락하고 있습니다. 또한, 홈페이지에서 결과를 확인할 수 있다는 내용은 원본 텍스트와 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있으며, 전화 통화가 되지 않을 경우의 처리 방식에 대한 설명이 상충합니다. 원본 텍스트는 등록 포기자로 처리된다고 명시하고 있지만, 생성된 응답은 홈페이지에서 결과를 확인할 수 있다고 주장하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 전화 통화가 되지 않는 경우에 대한 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용인 등록 포기 처리에 대한 언급이 부족하여 완전한 관련성을 갖추지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다. 특히, 전화 통화가 되지 않는 경우의 처리 방식에 대한 설명이 명확하지 않습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있으며, 중요한 세부 사항을 누락하고 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 특히 사실성, 일관성, 정확성에서 큰 문제를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과 일치하지 않는 부분이 있어 완전한 적절성을 갖추지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원본 텍스트와의 연결이 약해 일부 독자에게 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>0.4844812245461994</v>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대한 개별 전화 통보 시 전화 통화가 되지 않는 경우, 해당 합격자는 홈페이지에서 개별 조회를 통해 결과를 확인할 수 있습니다. 또한 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령 가능하며, 등록장소는 학교 지정은행(등록금 고지서에 기재)입니다.
+따라서 전화 통화가 되지 않더라도 홈페이지와 고지서를 통해 결과 확인이 가능합니다.</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 농어촌학생전형에 필요한 서류 목록을 잘못 제시하고 있습니다. 원본 텍스트에서 요구하는 서류는 구체적으로 나열되어 있지만, 생성된 응답은 고교 학교생활기록부와 동점자 처리를 위한 서류만 언급하고 있어 중요한 정보가 누락되었습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서류 목록이 다릅니다. 원본 텍스트에서 요구하는 서류와 생성된 응답에서 언급된 서류 간에 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 농어촌학생전형에 대한 질문에 답하고 있지만, 제공된 정보가 원본 텍스트의 주요 내용과는 다소 관련이 적습니다. 원본 텍스트의 서류 목록을 충실히 반영하지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성에 문제가 있어 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 나열되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 요구 사항을 정확하게 반영하지 않으며, 중요한 서류가 누락되어 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 품질 차원에서 부족함이 있으며, 특히 사실성과 일관성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 제공된 정보가 원본 텍스트의 의미와 맥락을 충분히 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 내용의 정확성 부족으로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>0.68437174837336</v>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다:
+1. 고교 학교생활기록부 1부 (교육기관, 공공기관, 무인민원발급기, 인터넷 정부24에서 발급 가능)
+2. 동점자 처리를 위한 서류:
+   - 국어 교과 전 과목 등급
+   - 수학 교과 전 과목 등급
+   - 영어 교과 전 과목 등급
+   - 한국사 교과 전 과목 등급
+   - 사회 교과 (역사/도덕 포함) 전 과목 등급
+위와 같은 서류를 준비하여 제출해야 합니다. 특히 동점자 처리를 위한 서류는 순위에 따라 다르게 요구되므로, 지원하는 학생의 순위에 맞는 기준을 충족시키도록 서류를 준비해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 제출해야 할 서류 목록을 정확하게 나열하고 있으며, 대부분의 정보가 원본 텍스트와 일치합니다. 그러나 '6년과정' 서류 제출 가능성에 대한 추가 정보는 원본 텍스트에 포함되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 따르지만, '6년과정' 서류 제출 가능성에 대한 언급이 추가되어 있어 일관성이 떨어집니다. 원본 텍스트에는 그러한 정보가 없기 때문에 일관성 점수가 낮아졌습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 필요한 서류에 대한 정보를 직접적으로 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있어 완벽한 유창성 점수는 아닙니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 추가된 정보가 원본 텍스트와의 연결성을 약간 떨어뜨리므로 완벽한 점수는 아닙니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 사실을 정확하게 반영하고 있지만, '6년과정' 서류 제출 가능성에 대한 언급이 원본 텍스트에 없기 때문에 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 문제로 인해 완벽한 점수는 아닙니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 추가된 정보가 원본의 의도와 다소 어긋날 수 있어 완벽한 점수는 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 추가된 정보로 인해 약간의 혼란을 줄 수 있어 완벽한 점수는 아닙니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>0.8290248740447089</v>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원 시 제출해야하는 서류는 다음과 같습니다.
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부(학생부 온라인 제공 비대상교 및 미동의자)
+   - 중·고등학교 재학 시 부, 모 모두 농어촌(읍∙면)지역에서 거주한 자는 '6년과정' 서류제출 가능
+위와 같은 서류를 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 기회균등 전형이 신설되었다고 주장하지만, 원문에서는 해당 전형이 존재하지 않는다고 명시하고 있습니다. 따라서 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원문과 상충되는 내용을 담고 있습니다. 원문에서는 기회균등 전형이 없다고 명시하고 있는데, 생성된 응답은 신설되었다고 주장하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 기회균등 전형에 대한 질문에 대한 답변을 시도하고 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성은 있지만 신뢰할 수 없는 정보입니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 문장 간의 흐름이 자연스럽습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원문과 상반되는 정보를 제공하고 있어 정확성이 매우 낮습니다. 기회균등 전형이 존재하지 않는다는 사실을 무시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 여러 차원에서 평가했을 때, 사실성, 일관성, 정확성 모두 낮은 점수를 받았기 때문에 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 기회균등 전형에 대한 질문에 대한 답변을 시도하고 있지만, 잘못된 정보로 인해 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 쉽지만, 잘못된 정보로 인해 신뢰성이 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>0.6578273617216525</v>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>2024학년도 정시모집에서는 저소득 기회균등 전형이 신설되었습니다. 이전의 정보에는 해당 내용이 포함되어 있지 않아, 정확한 자세한 사항은 대학 입학처 웹사이트를 참조하시거나 직접 문의하시는 것이 좋습니다. 관련 링크는 [https://ipsi. deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)입니다. 이 링크에서 더 많은 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 최저등급의 절사 여부에 대한 정보가 없다는 원문 내용을 무시하고, 2.5등급이 절사되지 않고 그대로 반영된다고 주장하고 있습니다. 이는 원문과 상충되는 정보로, 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 내용을 포함하고 있어 일관성이 없습니다. 원문은 절사 여부에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 절사되지 않는다고 주장합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 언급된 수능 최저등급과 관련된 내용을 다루고 있지만, 원문에서 제시된 정보와는 다르게 해석하고 있습니다. 따라서 관련성은 있지만, 정확한 정보와는 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장에서 불필요한 반복이 있어 약간의 매끄러움이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 원문과의 관계가 명확하지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 상충되는 내용을 포함하고 있어 정확성이 매우 낮습니다. 원문은 절사 여부에 대한 정보가 없다고 명시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 부족합니다. 원문에서 제공된 정보와는 다른 주장을 하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>0.6125184807822953</v>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>2.5 등급은 절사되지 않고 그대로 반영됩니다. 수능 영어영역의 경우 등급이 실수로 나올 수 있지만, 실제 입학 시스템에서는 해당 등급을 올림이나 절사하지 않고 그대로 반영합니다. 따라서 2.5등급은 2.5등급으로 평균산출이 이루어집니다.
+만약 특정 영역의 평균산출 방법에 대한 자세한 내용이 궁금하시다면, "https://ipsi. deu. ac. kr/main. do" 링크를 참조해보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 "정시 충원 합격자 발표는 총 4차로 이루어집니다."라고 언급하고 있지만, 원본 텍스트에서는 3차까지 발표가 이루어진다고 명시되어 있습니다. 따라서 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 제공하고 있습니다. 원본 텍스트는 3차까지 발표가 이루어진다고 명시하고 있지만, 생성된 응답은 4차로 이루어진다고 하여 일관성이 결여되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 발표 일정에 대한 정보를 잘 전달하고 있습니다. 따라서 관련성은 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기 쉽게 작성되었습니다. 다만, 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일정에 대한 정보를 나열하고 있지만, 4차 발표에 대한 언급이 원본 텍스트와 상충하여 논리적 흐름이 약간 깨집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 4차 발표에 대한 언급은 정확하지 않습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 관련성은 높지만, 사실성과 일관성에서 큰 문제를 가지고 있습니다. 따라서 전반적인 품질은 중간 정도로 평가됩니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 잘못된 정보로 인해 의미 전달이 완벽하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>0.850453648479064</v>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 정시 충원 합격자 발표는 총 4차로 이루어집니다.
+1. **1차 발표**: 2024년 2월 14일(수) 09:00에 이루어집니다.
+2. **2차 발표**: 2024년 2월 15일(목) 09:00에 이루어집니다.
+3. **3차 이후 발표**: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지 개별 전화 통보를 통해 이루어집니다.
+이와 같이 총 4차로 합격자 발표가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 수능 성적 반영 비율에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 평균 점수와 관련된 세부 사항을 충분히 반영하지 못하고 있습니다. 또한, 수능 성적이 4.6이라는 점수에 대한 해석이 다소 부정확합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 수능 성적 반영 비율에 대한 추가 정보를 제공하면서 원본 텍스트의 평균 점수와의 관계를 명확히 하지 못하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 e비즈니스학과의 수능 성적 반영 비율과 추가 합격 가능성에 대한 정보를 제공하여 관련성이 높지만, 원본 텍스트의 평균 점수와의 직접적인 연관성을 충분히 다루지 않았습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 다소 약해 보입니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 수능 성적에 대한 정보를 제공하지만, 원본 텍스트의 평균 점수와 관련된 정확한 해석이 부족합니다. 이로 인해 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트의 핵심 정보를 충분히 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있지만, 원본 텍스트의 맥락을 완전히 반영하지는 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 내용이 원본 텍스트와의 연결이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>0.6255455290405557</v>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 수능 성적이 4.6이면 정시 전형으로 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>2024학년도에 e비즈니스학과의 경우, 일반학생전형에서 수능 성적 반영 비율은 국어(화법과작문 또는 언어와매체) 25% + 수학(확률과통계 또는 미적분 또는 기하) 25% + 영어 25% + 탐구(사회탐구 또는 과학탐구 또는직업탐구 - 2개 과목 합) 25%입니다.
+수능 성적이 4.6이면, 이는 130점 이상의 수능 점수가 됩니다 (등급 4). 따라서 영어 영역에서만 130점을 얻은 것으로 가정할 수 있습니다. 
+다군 수능(일반학생전형)에서는 수능 성적 반영 비율이 100%입니다. 따라서 e비즈니스학과의 경우, 수능 영어 점수만으로도 추가 합격 가능성이 있습니다.
+하지만 정확한 합격 여부는 해당 대학의 최저 합격 기준 점수가 필요하며, 이 정보는 대학 홈페이지나 입시 안내서에서 확인할 수 있습니다. 따라서 "https://ipsi. deu. ac. kr/main. do" 링크를 통해 최신 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경쟁률, 충원 합격자 수, 지원 인원 등의 정보를 포함하고 있지만, 영어 등급 평균이 3.00이라는 정보는 원본 텍스트의 3.66과 다릅니다. 또한, 정시 등급 5.3에 대한 합격 가능성에 대한 언급이 있지만, 원본 텍스트의 내용과 일치하지 않는 부분이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보와 일치하지만, 영어 등급 평균과 관련된 정보에서 불일치가 발생합니다. 또한, 정시 등급 5.3에 대한 합격 가능성에 대한 해석이 원본 텍스트와 다소 상충하는 부분이 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 e비즈니스학과의 합격 가능성에 대한 질문에 관련된 정보를 제공하고 있으며, 경쟁률과 지원 인원에 대한 정보도 포함되어 있어 관련성이 높습니다. 그러나 원본 텍스트의 주요 포인트인 평균 등급에 대한 정보가 다소 왜곡되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 일부 정보의 불일치로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 영어 등급 평균과 관련된 정보에서 오류가 있으며, 원본 텍스트의 사실과 일치하지 않는 부분이 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 사실성과 일관성에서의 문제로 인해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 맥락과 의미를 대체로 잘 전달하고 있으며, 관련된 정보를 제공하고 있습니다. 그러나 일부 세부 사항에서 부정확성이 존재합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 정보의 불일치로 인해 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>0.6555813670049638</v>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>정시 등급 5.3이면 동의대학교에 e비즈니스학과에 최초 합격 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 e비즈니스학과의 경쟁률은 2.20이며, 충원 합격자는 6명입니다. 지원 인원이 11명으로 적당히 낮은 경쟁률을 보이고 있습니다.
+국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 303.80이며, 이는 정시 등급 5.3에 해당하는 점수가 될 것입니다. 이 점수는 평균보다 약간 낮지만, 경쟁률이 낮아서 최초 합격 가능성은 있습니다.
+영어 등급의 평균은 3.00이며, 정시 등급 5.3에 해당하는 영어 점수도 이 수준을 충족할 것입니다.
+따라서, 정시 등급 5.3이면 e비즈니스학과에 최초 합격 가능성은 있습니다만, 확실한 것은 아닙니다. 경쟁률이 낮고 지원 인원이 적어 최초 합격 가능성이 높지만, 최종 결정은 입시 결과에 따라 달라질 수 있습니다.
+더 자세한 정보는 동의대학교 입학처 웹사이트를 참조하시거나, 직접 문의하시는 것이 좋습니다. "https://ipsi. deu.ac.kr/main.do"</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 예비 38번의 합격 가능성에 대한 명확한 정보를 제공하지 않고, 여러 요소를 고려해야 한다고 언급하고 있습니다. 그러나 원본 텍스트에서 명시된 "예비 38번이라면 예비 합격할 가능성이 낮습니다"라는 사실을 직접적으로 반영하지 않고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있지만, 예비 38번의 합격 가능성에 대한 명확한 결론을 제시하지 않아 일관성이 떨어집니다. 원본 텍스트의 주장을 명확히 지지하지 않기 때문에 일관성 점수가 낮습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 예비 합격 여부에 대한 질문에 대한 답변을 제공하고 있으며, 관련된 정보와 조언을 포함하고 있습니다. 그러나 원본 텍스트의 핵심 내용인 예비 38번의 합격 가능성에 대한 직접적인 언급이 부족하여 점수가 다소 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 제안된 방법들이 순차적으로 나열되어 있어 이해하기 쉽습니다. 그러나 원본 텍스트와의 연결이 약해 다소 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 완전히 반영하지 않으며, 예비 38번의 합격 가능성에 대한 명확한 정보를 제공하지 않습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 그러나 사실성과 일관성에서 부족함이 있어 전반적인 품질 점수가 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 맥락에 적절하게 의미를 전달하고 있으며, 관련된 조언을 포함하고 있습니다. 그러나 원본 텍스트의 핵심 내용을 직접적으로 반영하지 않아 점수가 다소 낮습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어질 수 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>0.5971994400828585</v>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비 38번 이정도면 예비합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 정확한 예비합격 여부를 판단하기 어렵습니다. 전형일정과 모집인원, 지원자격 등 다양한 요소가 고려되어 결정됩니다. 특히 e비즈니스학전공의 경우 모집단위와 모집인원이 명시되지 않았습니다.
+추천되는 방법은 다음과 같습니다:
+1. 해당 대학의 입학 안내 홈페이지(https://ipsi. deu. ac. kr/main. do)를 확인해 보세요.
+2. e비즈니스학전공에 대한 모집단위와 모집인원을 찾아보세요.
+3. 현재 지원자의 점수와 모집인원을 비교해 보세요.
+만약 자세한 정보가 필요하다면, 해당 대학의 입학관리팀으로 문의하시거나, 입학설명회에 참석하여 직접 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 3.44라는 성적이 동의대학교 간호학과에 합격할 수 있는 점수라고 주장하지만, 원본 텍스트에서는 3.44가 간호학과에 합격하기 어려울 수 있다고 명시하고 있습니다. 이로 인해 사실관계가 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 상반된 정보를 제공합니다. 원본에서는 3.44가 합격하기 어려울 수 있다고 했으나, 생성된 응답에서는 합격 가능성이 높다고 주장합니다. 이로 인해 일관성이 결여되어 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 결론을 도출하고 있습니다. 그러나 간호학과의 성적 기준에 대한 추가 정보를 제공하여 관련성을 유지하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 주장이 서로 상충하여 일관된 흐름을 방해합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상반된 정보를 포함하고 있습니다. 3.44라는 성적이 합격 가능성이 높다고 주장하는 것은 사실과 다릅니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실관계와 일관성에서 큰 문제가 있으며, 정확성 또한 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 잘못된 결론으로 인해 전체적인 의미 전달이 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>0.6292067285611926</v>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>정시 성적 3.44인데 동의대학교 간호학과에 합격 가능성 없을까요?</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>3.44이라는 성적이 동의대학교 간호학과에 충분히 합격할 수 있는 점수일 것입니다. 동의대학교 간호학과의 정원 내 모집 인원은 110명이며, 국어, 수학, 영어, 사회(역사/도덕 포함), 과학, 한국사 교과 성적을 반영합니다.
+당신이 제시한 성적이 다음과 같다고 가정하겠습니다:
+- 국어: A등급
+- 수학: B등급
+- 영어: C등급
+- 사회: D등급
+- 과학: E등급
+- 한국사: F등급
+이 경우, 각 과목의 석차 등급 평균을 계산하면 다음과 같습니다:
+- A: 1
+- B: 2
+- C: 3
+- D: 4
+- E: 5
+- F: 6
+평균 = (1 + 2 + 3 + 4 + 5 + 6) / 6 = 3.5
+이 점수는 동의대학교 간호학과에 충분히 경쟁력 있는 점수입니다.
+따라서, 정시 성적 3.44로 동의대학교 간호학과에 합격 가능성은 매우 높습니다. 하지만 최종 합격 여부는 입학사정관 심사 등 기타 요인도 고려되므로, 확실한 결과를 얻기 위해서는 정시 모집을 신청하고 기다리는 것이 좋겠습니다.
+추가로, 동의대학교 간호학과에 지원하기 전에는 해당 학과의 입학사정관 심사 기준 등을 확인하시고, 필요하다면 대비하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 평균 성적에 대한 정보와 경쟁률에 대한 언급이 있지만, "2.52라는 점수는 낮은 편입니다"라는 주장은 사실과 다릅니다. 원본 텍스트에 따르면 2.52는 평균 등급보다 높은 성적이므로, 이 부분에서 부정확한 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 2.52 점수가 낮다고 언급한 부분에서 일관성이 결여되어 있습니다. 원본 텍스트는 2.52가 평균보다 높은 성적이라고 명시하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 합격 가능성에 대한 다양한 요소를 다루고 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 정보인 평균 성적에 대한 언급이 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 일부 정보가 원본 텍스트와의 연결이 약해 보일 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 2.52 점수에 대한 해석이 잘못되어 있어 정확성에 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균 이상의 성과를 보이지만, 사실성과 일관성에서 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 정보가 잘못 해석되어 있어 완전한 적합성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>0.6271074383830236</v>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.52인데 동의대학교 간호학과 최종 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 경쟁률은 6.59이며, 지원 인원이 많아서 높은 경쟁률을 보이고 있습니다. 현재 제시된 성적인 2.52는 평균적인 수능 점수보다 낮습니다.
+간호학과의 합격 가능성은 다음과 같은 요소들에 따라 달라질 수 있습니다:
+1. **성적**: 수능 성적이 높을수록 경쟁률이 높아지므로, 2.52라는 점수는 낮은 편입니다.
+2. **서류 평가**: 서류평가에서 학업역량과 전공적합성 등이 중요하게 작용합니다. 열정을 보여주고, 관련 활동이나 경험을 잘 기재한다면 이 부분에서 좋은 점수를 받을 수 있습니다.
+3. **면접 성적**: 면접에서도 학업역량과 전공적합성을 평가받습니다. 준비를 충분히 하여 긍정적인 인상을 줄 수 있어야 합니다.
+따라서, 2.52라는 점수로는 경쟁률이 높은 간호학과에서 최종 합격하기 어렵다고 판단할 수 있습니다. 하지만 서류평가와 면접 성적을 잘 준비한다면 기회를 얻을 수도 있습니다.
+추가적으로, 동의대학교의 다른 단과대학이나 모집단위에서는 더 낮은 점수로도 합격이 가능한 경우가 있으므로, 다양한 대학과 단과대학을 검토해보는 것이 좋습니다. 또한, 추가 지원을 위한 준비를 하여 보다 좋은 결과를 얻으시기 바랍니다.
+더 자세한 정보나 도움이 필요하시다면 "https://ipsi. deu. ac. kr/main. do" 를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 전형에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 정시 성적과 관련된 평균 등급에 대한 정보는 누락되어 있습니다. 또한, 정시 성적이 3.7이라는 점을 언급하면서도 그에 대한 합격 가능성에 대한 명확한 언급이 부족합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 간호학과의 평균 등급에 대한 정보가 누락되어 있어 일관성이 떨어집니다. 또한, 전형에 대한 정보가 추가되었지만, 원본 텍스트의 핵심 내용과는 다소 다른 방향으로 나아가고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과에 지원하는 방법과 관련된 정보를 제공하여 원본 텍스트와 관련이 있지만, 정시 성적에 대한 직접적인 질문에 대한 답변이 부족합니다. 따라서 관련성은 높지만 완전하지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 다소 복잡한 표현이 사용되어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원본 텍스트의 핵심 내용과의 연결이 약해져 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 전형에 대한 정보를 제공하지만, 원본 텍스트의 평균 등급과 관련된 정보가 누락되어 있어 정확성이 떨어집니다. 또한, 정시 성적에 대한 합격 가능성에 대한 명확한 언급이 부족합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트의 핵심 정보를 충분히 반영하지 못하고 있습니다. 따라서 전반적인 품질이 다소 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 간호학과에 대한 정보를 제공하고 있습니다. 그러나 원본 텍스트의 맥락과는 다소 다르게 해석될 수 있는 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보를 제공합니다. 그러나 일부 문장이 복잡하게 구성되어 있어 이해하는 데 약간의 어려움이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>0.5927140850871637</v>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>정시 성적이 3.7인데 정시 전형으로 간호학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>2024학년도의 정시 모집군 변경사항을 보면, 간호학과는 특정 전형에 포함되어 있지 않습니다. 따라서 간호학과에 지원하려면 일반전형이나 특별전형 등을 통해 지원해야 합니다.
+학생부종합 평가영역에서 학업역량이 중요한 요소 중 하나로 반영되므로, 정시 성적이 3.7이라면 학생부의 교과성적을 잘 보여줘야 합니다. 특히 간호학과에서는 인문사회과학적 기초지식과 실기능력이 요구되는 만큼, 관련 과목의 성적과 활동 경력을 잘 준비해두시는 것이 중요합니다.
+또한, 학생부종합 평가에서 공동체역량이나 전공적합성 등도 중요한 요소로 작용하므로, 이러한 부분을 강화하는 것도 필요합니다. 
+입학사정관이 지원자의 전체적인 성장을 종합적으로 판단하기 때문에, 지원자 개인의 특성을 잘 보여줄 수 있는 자료들을 준비하시기 바랍니다.
+더 자세한 정보를 얻으시려면 https://ipsi. deu.ac.kr/main.do 웹사이트를 참조하거나 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 등급과 관련된 정보를 제공하고 있으며, 정시 성적이 2.58인 경우 합격 가능성이 높다는 점을 언급하고 있습니다. 그러나 구체적인 전형요소 반영비율이나 성적 평균에 대한 정보는 원문에 명시된 내용과 다소 차이가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 일부 일치하지만, 전형요소 반영비율과 같은 세부사항에서 차이가 있어 일관성이 떨어집니다. 특히, 2024년도 전형요소 반영비율에 대한 정보는 원문에 포함되어 있지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 간호학과의 정시 전형에 대한 정보를 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기 쉽게 구성되어 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 정보가 원문과 일치하지 않아 완전한 일관성을 보장하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 정확한 정보를 제공하고 있으나, 원문에 명시된 특정 수치나 비율과는 차이가 있어 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다. 다만, 일부 세부사항에서 차이가 있어 완전한 적절성은 떨어질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 정보가 원문과 다르게 제시되어 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>0.629327565419141</v>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.58인데 동의대학교 간호학과에 정시 전형으로 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 정시 모집요강을 확인해보겠습니다.
+1. **정시모집군**: 간호학과는 보통 '가'군에 속합니다.
+2. **전형요소 반영비율**:
+   - 2023년도: 실기/실적(경기실적우수자전형): 학생부교과(출결포함)30%+서류(실적)70%
+   - 2024년도: 실기/실적(경기실적우수자전형): 학생부교과18%+출결12%+서류(실적)70%
+3. **학생부 교과성적 반영방법**:
+   - 2024년도: 반영과목 전 모집단위(한의예과 제외) 12과목 : 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+4. **성적 평균**:
+   - 학생부 교과성적 반영 비율은 18%입니다.
+   - 성적이 2.58이라면, 이는 대체로 괜찮은 점수입니다.
+5. **기타 요소**:
+   - 출결: 0~2일이면 좋습니다.
+   - 서류(실적): 실적 부분에서 좋은 성적을 받았다면 합격 가능성은 높아집니다.
+따라서, 정시 성적이 2.58이라면, 간호학과에 정시 전형으로 합격할 수 있을 가능성이 있습니다. 하지만 최종 합격 여부는 모집단위와 교과성적 반영 비율, 출결 등 여러 요소를 고려해야 합니다.
+만약 자세한 정보가 필요하다면, 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다. "https://ipsi. deu.ac.kr/main.do" 링크에서 더 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 예비 7번의 합격 가능성에 대한 정보가 부족하고, 원본 텍스트의 핵심 사실을 왜곡하고 있습니다. 원본 텍스트는 예비 7번의 합격 가능성이 낮다고 명확히 언급하고 있지만, 생성된 응답은 그 가능성을 명확히 언급하지 않고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 예비 7번의 합격 가능성이 낮다고 명시하고 있지만, 생성된 응답은 그에 대한 명확한 결론을 제시하지 않고 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원본 텍스트와 관련된 정보를 제공하지만, 주제에서 벗어난 추가적인 정보가 많아 핵심 질문에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 정보를 나열하고 있지만, 전체적으로 논리적인 흐름이 부족하여 일관성이 떨어집니다. 원본 텍스트의 주제와 연결되지 않는 정보가 많습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하지 않으며, 예비 7번의 합격 가능성에 대한 명확한 정보를 제공하지 않습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 원본 텍스트의 핵심 정보를 제대로 전달하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 주제에서 벗어난 정보가 많아 의미 전달이 명확하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 이해할 수 있지만, 정보가 과도하게 나열되어 있어 핵심 메시지가 흐려질 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>0.6200941529192082</v>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>7번 학생님이 게임공학과에 지원하셨다는 점을 확인했습니다. 하지만 현재 제공된 정보만으로는 정확한 답변이 어렵습니다. 게임공학과의 모집인원, 전형방법 등 자세한 내용을 확인해야 합니다.
+현재 정보를 바탕으로 추론해보면:
+1. **모집단위와 인원**: 
+   - 스마트호스피탈리티학과: 7명
+   - 미래형자동차학과: 7명
+   - 소프트웨어융합학과: 7명
+2. **전형방법**:
+   - 학생부종합전형
+   - 조기취업형계약학과전형 (정원외)
+3. **점수와 등급**:
+   - 학생부교과: 18%
+   - 출결: 12%
+   - 서류(경기실적): 70%
+4. **면접평가**:
+   - 면접시간: 10분 이내
+   - 평가영역: 학업역량, 전공적합성
+5. **동점자 처리 기준**:
+   - 1등위치는 면접 성적이 상위자
+   - 2등위치는 서류평가 공동체역량 영역 성적이 상위자
+   - 3등위치는 서류평가 전공적합성 영역 성적이 상위자
+현재 정보로는 정확한 붙을 확률을 예측하기 어렵습니다. 게임공학과에 지원하셨다면, 해당 학과의 모집인원, 전형요소 반영비율 등을 확인하시고, 자신의 실적과 능력을 최대한 발휘하는 것이 중요합니다.
+더 자세한 정보를 얻기 위해서는 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조하거나, 대학 입학처에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 등급 4.16이 평균 등급 4.78보다 낮다고 언급하고 있지만, 원본 텍스트에서는 4.16이 평균보다 높은 성적이라고 명시되어 있습니다. 이로 인해 사실관계가 크게 왜곡되었습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 상반된 정보를 제공하고 있습니다. 원본에서는 4.16이 평균보다 높은 성적이라고 했으나, 생성된 응답에서는 낮다고 주장하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하고 있으며, 추가 합격 가능성에 대한 논의도 포함되어 있습니다. 그러나 원본 텍스트의 핵심 사실을 잘못 전달하고 있어 완전한 관련성은 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보가 서로 연결되지 않는 부분이 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘못 전달하고 있으며, 특히 수능 등급에 대한 정보가 부정확합니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답이 원본 텍스트와의 불일치로 인해 전반적으로 낮은 품질을 보이고 있습니다. 사실관계, 일관성, 정확성 모두에서 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트의 의미와는 다르게 해석되고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>0.723739709994956</v>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>수능 성적이 4.16인데 정시 전형으로 동의대학교 게임공학과에 지원하면 추가 합격이 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>4.16이라는 수능 등급은 게임공학과의 평균 수능 4개 영역 등급의 평균인 4.78보다 낮습니다. 따라서, 현재 제공된 정보만으로는 추가 합격이 가능할 것이라고 단정하기 어렵습니다. 게임공학과의 경쟁률은 5.33이며, 지원 인원이 16명이고 모집 인원이 3명이라는 점을 고려하면, 수능 등급이 평균보다 낮더라도 추가 합격 가능성은 있습니다.
+하지만, 정확한 합격 여부는 동의대학교 입학처에서 제공하는 최종 합격자 명단을 확인해야 합니다. 따라서, 현재 상황에서는 추가 합격 가능성이 있으나 확실한 것은 아니므로, 동의대학교 입학처 웹사이트를 방문하여 최신 정보를 확인하거나, 입학처에 직접 문의하는 것이 좋습니다.
+더 자세한 정보를 얻기 위해서는 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 동의대학교 입학처 웹사이트에서 최신 합격자 명단 및 기타 지원 관련 정보를 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 학생부 교과성적 반영 방법에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 영어 등급 평균과 수능 4개 영역 등급 평균에 대한 구체적인 정보는 포함되어 있지 않습니다. 따라서 일부 사실이 누락되어 있어 점수를 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 학생부 교과성적의 중요성을 강조하면서 원본 텍스트의 주요 포인트인 정시 등급 3.75에 대한 합격 가능성에 대한 언급이 부족합니다. 이로 인해 일관성이 떨어져 점수를 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과에 지원하기 위한 학생부 교과성적의 중요성에 대해 설명하고 있어 관련성이 높습니다. 그러나 원본 텍스트의 주요 내용인 정시 등급 3.75에 대한 직접적인 언급이 부족하여 점수를 4로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있어 점수를 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 원본 텍스트와의 연결이 약간 부족하여 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 지원 요건에 대한 정보를 제공하지만, 원본 텍스트의 구체적인 수치나 평균 등급에 대한 정보가 누락되어 있어 정확성이 떨어집니다. 따라서 점수를 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트의 주요 사실과 세부 사항이 누락되어 있어 전반적인 품질이 떨어집니다. 따라서 점수를 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 맥락에 적절하게 의미를 전달하고 있습니다. 그러나 원본 텍스트의 특정 세부 사항이 누락되어 있어 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다. 그러나 일부 문장이 길어질 수 있어 점수를 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>0.7027735778165585</v>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>2024학년도에 경영정보학과를 정시모집으로 지원하려면, 학생부 교과성적의 평균 점수가 중요합니다. 주어진 정보에서 학생부 교과성적 반영방법은 다음과 같습니다:
+- 2024학년도에는 반영과목이 전 모집단위(한의예과 제외) 12과목이며, 이 중 석차등급 상위 12과목을 반영합니다.
+따라서 경영정보학과에 지원하려면, 학생부 교과성적의 평균 점수가 중요합니다. 정시모집군에서 경영정보학과를 지원하기 위해서는 최소한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목을 반영해야 합니다.
+주어진 학생부 교과성적 평균 점수인 3.75는 일반적으로 경쟁력이 있는 수준입니다. 그러나 최초 등록자로 지원할 경우, 다른 지원자의 성적이 높다면 경쟁력을 잃을 수 있습니다. 따라서 3.75의 평균 점수가 경영정보학과에 지원하기에는 충분한 점수일 것입니다.
+만약 더 자세한 정보나 조언이 필요하다면, 동의대학교 입학처 웹사이트를 방문하여 최신 정보를 확인하거나 전화로 문의하는 것이 좋습니다. [https://ipsi. deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 경영정보학과의 평균 등급과 관련된 정보를 제공하지만, 주어진 정보와는 상충되는 내용을 포함하고 있습니다. 특히, 4.2의 점수로 지원이 가능하다고 언급했으나, 원본 텍스트에서는 4.2가 평균 등급보다 낮아 합격 가능성이 낮다고 명시하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본에서는 4.2의 점수가 낮다고 하였으나, 생성된 응답에서는 지원이 가능하다고 주장하고 있어 서로 모순됩니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 지원 요건에 대한 정보를 제공하고 있으나, 원본 텍스트의 핵심 내용인 합격 가능성에 대한 직접적인 답변이 부족합니다. 따라서 관련성은 있지만, 주제에서 벗어난 부분이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족하여 일관된 주제를 유지하지 못하고 있습니다. 특히, 2023학년도와 2024학년도 비교 부분이 원본 텍스트와의 연결이 약합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충되는 내용을 포함하고 있어 정확성이 떨어집니다. 4.2의 점수로 지원이 가능하다는 주장은 원본의 내용을 잘못 해석한 것입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 특히 사실성과 일관성에서 큰 문제가 있습니다. 전반적으로 원본 텍스트와의 관계가 약합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 내용이 포함되어 있습니다. 특히, 지원 가능성에 대한 해석이 잘못되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 내용이 원본과의 연결이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>0.6766324819344786</v>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적이 4.2입니다. 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>2024학년도에 경영정보학과를 정시로 지원하려면, 학생부 교과성적의 평균 점수가 요구사항을 충족해야 합니다. 주어진 정보에서 2023학년도와 2024학년도의 학생부 교과성적 반영방법을 비교해보겠습니다.
+2023학년도에는:
+- 반영과목: 전 모집단위(한의예과 제외) 8과목 (국어, 수학, 영어교과 중 석차등급 상위 4과목, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목)
+- 평균 점수: 4.2
+2024학년도에는:
+- 반영과목: 전 모집단위(한의예과 제외) 12과목 (국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목)
+- 평균 점수: 4.2
+2023년과 2024년의 학생부 교과성적 반영방법을 비교해보면, 2024학년도에는 반영과목이 더 많아졌습니다 (12과목 대비 8과목). 그러나 평균 점수는 동일하게 4.2입니다.
+따라서, 2023년과 2024년의 학생부 교과성적 반영방법을 고려할 때, 4.2이라는 평균 점수로 경영정보학과를 정시로 지원하는 것은 가능합니다. 하지만, 최초등록자로서의 특별한 조건이 있는지 확인해야 합니다.
+만약에 추가적인 정보가 필요하다면, 동의대학교의 입학처 웹사이트 (https://ipsi. deu.ac.kr/main.do)를 참조하시거나 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 경영정보학과의 수능 점수 기준에 대한 정보를 제공하고 있지만, 원본 텍스트에서 언급된 평균 등급과 비교할 때 정시 성적이 5.33인 경우 합격 가능성이 낮다는 점을 명확히 반영하지 못하고 있습니다. 따라서 일부 사실이 누락되었거나 왜곡된 부분이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 정시 성적이 5.33인 경우 합격 가능성이 낮다는 원본의 주장을 명확히 반영하지 않고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 경영정보학과의 수능 점수 기준과 학생부 교과성적 반영 방법에 대한 정보를 제공하여 관련성이 높습니다. 그러나 원본 텍스트의 핵심 주제인 합격 가능성에 대한 명확한 언급이 부족합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 정보가 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트의 핵심 주제와의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 수능 점수 기준과 학생부 교과성적 반영 방법에 대한 정보를 제공하지만, 원본 텍스트의 핵심 사실인 합격 가능성에 대한 명확한 진술이 부족하여 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트의 핵심 사실을 충분히 반영하지 못하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 동의대학교 경영정보학과에 대한 정보를 잘 전달하고 있습니다. 그러나 원본 텍스트의 핵심 주제와의 연결이 약간 부족합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어 독자가 쉽게 내용을 파악할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>0.7140860510296029</v>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>정시 성적이 5.33인데 동의대학교 경영정보학과 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경영정보학과의 수능 점수 기준을 확인해보겠습니다.
+- **수능 영어 등급** : 1등급 (139점)
+- **수능 국어 등급** : 2등급 (131점)
+- **수능 수학 등급** : 3등급 (123점)
+이 기준에 따르면, 정시 성적이 5.33인 경우는 수능 점수가 상대적으로 높은 편입니다. 하지만 동의대학교 경영정보학과의 정시 모집에서는 수능 점수 외에도 학생부 교과성적 등이 반영됩니다.
+2024학년도 동의대학교의 학생부 교과성적 반영방법은 다음과 같습니다:
+- **반영과목** : 전 모집단위 (한의예과 제외) 12과목
+  - 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+정시 성적이 5.33인 경우, 학생부 교과성적을 고려할 때 합격 가능성은 있습니다만, 확실한 것은 아닙니다. 동의대학교 경영정보학과는 수능 점수와 학생부 교과성적 모두를 종합적으로 평가하므로, 정시 성적이 5.33인 경우에도 합격 가능성이 있지만, 학생부 교과성적 등 다른 요소들도 고려되어야 합니다.
+따라서, 최종 합격 여부는 동의대학교에서 발표하는 최종 합격자 명단을 확인해야 합니다. 더 자세한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다.
+https://ipsi. deu.ac.kr/main.do</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 바이오응용공학부의 성적 기준과 관련된 정보를 제공하고 있으며, 3.33의 성적이 합격 가능성이 높다는 점을 언급하고 있습니다. 그러나, 원문에서 제공된 영어 등급 평균과 수능 4개 영역 등급 평균에 대한 정보는 포함되어 있지 않아 일부 사실이 누락되었습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되게 바이오응용공학부의 성적 기준을 설명하고 있으며, 3.33의 성적이 합격 가능성이 높다는 점에서 일치합니다. 다만, 모집군의 변경에 대한 정보가 추가되어 있어 약간의 차이가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 바이오응용공학부의 정시 모집군과 성적 기준에 대한 정보를 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 전반적으로 유창하게 작성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있어 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 성적 기준에 대한 정확한 정보를 제공하고 있지만, 원문에서 언급된 평균 성적에 대한 정보가 누락되어 있어 완전한 정확성은 다소 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 유창성, 일관성에서 좋은 점수를 받았습니다. 그러나 일부 정보의 누락으로 인해 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 잘 이루어져 있으며, 질문의 맥락에 적절하게 대응하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>0.7304361011113278</v>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 바이오응용공학부에 대한 정시 모집군 정보를 확인해보겠습니다.
+바이오응용공학부는 2023년도와 2024년도 모두 같은 정시 모집군에 속해 있습니다. 2023년도의 경우, 정시모집군은 '가'군이었고, 2024년도에는 '다'군으로 변경되었습니다.
+성적 기준을 보면, 정시모집군 '가' 또는 '다'에 속하는 바이오응용공학부는 학생부교과 성적과 실기/실적 위주 전형의 성적 기준을 따릅니다. 2023년도와 2024년도 모두 해당 과정은 다음과 같습니다:
+- 반영과목: 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+- 성적 기준: 학생부교과성적 평균 점수
+2024년도의 경우, 반영학기 고교 졸업(예정)자는 1학년 1학기부터 3학년 1학기까지이며, 반영과목은 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목입니다.
+성적 평균 점수 기준을 보면, 정시모집군 '다'에 속하는 바이오응용공학부의 경우, 학생부교과 성적 평균 점수가 중요합니다. 이 점수는 3.0 이상이어야 합니다.
+따라서, 성적이 3.33 정도라면, 이는 충분히 바이오응용공학부 최초등록자로 가능할 것으로 보입니다. 하지만 정확한 결과를 얻기 위해서는 동의대학교 입학처 웹사이트나 전화로 확인하는 것이 가장 확실합니다.
+만약 추가 정보가 필요하거나, 다른 질문이 있다면 언제든지 알려주세요!</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 방사선학과의 모집인원과 전형요소에 대한 정보를 제공하고 있지만, 방사선학과의 평균 등급에 대한 언급이 없고, 4.4의 정시 등급으로 합격 가능성이 높다고 주장하는 것은 사실과 다릅니다. 원문에서는 4.4가 평균 등급보다 낮아 합격 가능성이 낮다고 명시하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 상충하는 정보를 제공합니다. 원문에서는 4.4의 정시 등급이 방사선학과의 평균 등급보다 낮아 합격 가능성이 낮다고 했으나, 생성된 응답에서는 합격 가능성이 충분히 높다고 주장하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 모집인원 및 전형요소에 대한 정보를 제공하지만, 질문자의 성적에 대한 직접적인 답변이 부족하여 원문과의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원문과의 연결이 부족하여 일관된 흐름이 떨어집니다. 특히, 성적에 대한 결론이 원문과 상충하여 논리적 일관성이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 방사선학과의 평균 등급에 대한 정보를 잘못 해석하고 있으며, 4.4의 정시 등급으로 합격 가능성이 높다고 주장하는 것은 사실과 다릅니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 일치성이 떨어지며, 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 대한 정보를 제공하지만, 질문자의 성적에 대한 적절한 맥락을 제공하지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>0.6232710765773301</v>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>2024학년도에 방사선학과의 모집인원 및 전형요소를 확인해보겠습니다.
+방사선학과는 공과대학의 학과로, 2023년도에는 로봇자동화공학과와 함께 28명을 모집하였습니다. 그러나 2024년도에 방사선학과가 신설되었음을 확인할 수 있습니다.
+전형요소 반영비율은 다음과 같습니다:
+- 수능: 100%
+- 실기: -
+따라서, 현재 성적인 4.4정시 등급으로는 충분히 합격 가능할 것으로 보입니다. 하지만 정확한 모집인원과 전형요소를 확인하시기 바랍니다.
+추가적으로, 방사선학과의 입학전형 안내 및 모집인원은 공과대학 홈페이지에서 확인하실 수 있으니, 해당 페이지를 참조해보시는 것이 좋겠습니다. 필요하다면 "https://ipsi. deu.ac.kr/main.do" 링크를 통해 공고를 확인하시기 바랍니다.
+이 정보가 도움이 되길 바랍니다. 추가로 궁금한 점이 있으면 언제든지 물어보세요.</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 방사선학과의 경쟁률에 대한 정보를 제공하고 있지만, 원본 텍스트에서 언급된 평균 영어 등급과 수능 4개 영역 등급 평균에 대한 정보는 포함되어 있지 않습니다. 또한, 2.66이라는 수치가 경쟁률로 잘못 해석되고 있습니다. 원본 텍스트는 정시 등급에 대한 내용이므로, 이 점에서 사실성이 떨어집니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 정시 등급에 대한 내용을 다루고 있지만, 생성된 응답은 경쟁률에 대한 내용으로 전환되어 있습니다. 이로 인해 두 텍스트 간의 일관성이 결여되어 있습니다.
+3. Relevance Score (1-5): 3  
+   - 설명: 생성된 응답은 방사선학과에 대한 정보를 제공하지만, 원본 텍스트의 주요 주제인 정시 등급에 대한 직접적인 관련성이 부족합니다. 경쟁률에 대한 언급은 있지만, 이는 원본 텍스트의 핵심 주제와는 다소 거리가 있습니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 다소 복잡한 표현이 사용되어 이해하기 어려운 부분이 있을 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다. 경쟁률에 대한 설명이 원본 텍스트의 내용과 잘 연결되지 않아 다소 단절된 느낌을 줍니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답은 2.66이라는 수치를 경쟁률로 잘못 해석하고 있으며, 원본 텍스트의 사실과 일치하지 않습니다. 원본 텍스트는 정시 등급에 대한 내용을 다루고 있으므로, 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 생성된 응답은 방사선학과에 대한 정보를 제공하지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다. 경쟁률에 대한 언급이 원본 텍스트의 주제와 맞지 않아 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있지만, 원본 텍스트와의 관련성이 부족하여 혼란을 줄 수 있습니다. 
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>0.5967520914530077</v>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>2.66이라는 경쟁률을 방사선학과에서 보았을 때, 이는 상대적으로 높은 경쟁률입니다. 방사선학과의 경우 모집인원이 5명이고 지원 인원이 36명으로, 평균 경쟁률이 7.20이라는 것을 볼 수 있습니다. 따라서 2.66은 평균적인 경쟁률에 비해 낮은 편입니다.
+하지만 이는 단순히 경쟁률을 바라보는 것이 아니라, 지원자의 합격 가능성을 결정하는 요소 중 하나일 뿐입니다. 합격 가능성은 서류평가와 면접평가의 결과를 포함하여 종합적으로 판단됩니다. 특히 방사선학과는 전공적합성과 학업역량이 중요하게 평가되므로, 이 부분에서 우수한 성적을 보여주고 진로 탐색 활동에 적극 참여하였다면 더 높은 점수를 받을 가능성이 있습니다.
+따라서 2.66이라는 경쟁률만으로는 확실한 판단이 어렵습니다. 지원자의 학업역량, 전공적합성 등 다른 평가 요소들을 종합적으로 고려해야 합니다. 더 자세한 정보나 조언을 원하신다면, "https://ipsi. deu. ac. kr/main. do"를 참조해 보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 3.66의 성적이 경찰행정학전공 농어촌 전형에 합격할 수 있는 점수라고 언급하고 있으며, 이는 원본 텍스트의 정보와 일치합니다. 그러나 원본 텍스트에서 언급된 평균 성적 4.12와의 비교가 부족하여 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 경찰행정학전공 농어촌 전형에 대한 합격 가능성을 언급하고 있지만, 원본 텍스트의 내용과는 다소 다른 방향으로 나아가고 있습니다. 원본 텍스트는 평균 성적과 경쟁률에 대한 정보를 제공하는 반면, 생성된 응답은 구체적인 전형의 기준 점수와 모집인원에 대한 정보가 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 경찰행정학전공 농어촌 전형에 대한 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기 쉽게 작성되었습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 단계가 명확하게 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 경찰행정학전공 농어촌 전형에 대한 합격 가능성을 언급하며, 이는 원본 텍스트의 정보와 일치합니다. 그러나 구체적인 기준 점수와 모집인원에 대한 정보가 부족하여 완전한 정확성을 제공하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 사실성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 세부 사항이 부족하여 완전한 적절성을 제공하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>0.5083471926721678</v>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 3.66이 나오는데요, 경찰행정학전공 농어촌 전형으로 지원했는데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>3.66의 성적은 경찰행정학전공 농어촌 전형에 충분히 합격할 수 있는 점수입니다. 그러나 정확한 합격 여부는 모집단위와 모집인원, 그리고 해당 전형의 기준 점수가 중요합니다.
+현재 제공된 정보만으로는 경찰행정학전공 농어촌 전형에 대한 모집인원과 기준 점수를 확인할 수 없습니다. 따라서 다음과 같은 절차를 따르시면 도움이 될 것입니다:
+1. **입학 안내 홈페이지 확인**: https://ipsi. deu.ac.kr/main.do 에 접속하여 해당 학교의 입학 안내 페이지에서 경찰행정학전공 농어촌 전형에 대한 모집인원과 기준 점수를 확인하세요.
+2. **모집요강 확인**: 각 전형별로 제공되는 모집요강을 통해 정확한 기준 점수와 모집인원을 파악하시기 바랍니다.
+3. **학력 및 성적 평가**: 현재의 학력과 성적이 경찰행정학전공 농어촌 전형에 충분히 부합하는지 확인하세요.
+만약 해당 정보를 통해 합격 가능성이 높다고 판단된다면, 원서접수와 서류제출 등 다음 단계로 진행하시기 바랍니다. 만약 불확실한 점이 있다면, 입학처나 학교 관계자에게 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 예비 25번의 합격 확률이 낮다고 주장하지만, 원문에서는 특정 학과에 따라 합격 가능성이 달라질 수 있다고 명시하고 있습니다. 따라서, 생성된 응답은 원문과 상충하는 정보를 제공하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제시된 정보와 일치하지 않으며, 예비 25번의 합격 확률이 낮다고 단정짓고 있습니다. 원문에서는 특정 학과에 따라 합격 가능성이 있다고 언급하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 예비 25번의 합격 가능성에 대한 질문에 대해 관련된 정보를 제공하고 있지만, 원문에서 제시된 특정 학과 목록에 대한 언급이 부족하여 완전한 관련성을 갖추지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원문과의 연결이 부족하여 전체적으로 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 상충하는 내용을 포함하고 있어 정확성이 떨어집니다. 예비 25번의 합격 가능성에 대한 정보가 잘못 해석되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 일치성이 부족하며, 사실성, 일관성, 정확성 모두에서 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문과의 맥락에서 벗어난 부분이 있어 완전한 적절성을 갖추지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 내용이지만, 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>0.5227290309411499</v>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>25번의 순위에서 합격할 확률은 매우 낮습니다. 동점자 처리 기준에 따르면, 가장 높은 순위는 1순위로 수능 국어와 수학, 영어 등급을 기반으로 결정됩니다. 따라서 25번의 경우, 다른 지원자가 동일한 점수를 받았을 가능성이 매우 크고, 이 경우 합격 확률이 낮아집니다.
+하지만 모든 것이 확실하지는 않습니다. 입학사정관 제도나 면접 등에서 개인적인 경쟁력이 반영될 수 있으므로, 최선을 다해 준비하는 것이 중요합니다. 또한 학교의 동점자 처리 기준을 잘 이해하고, 지원자의 경쟁력을 분석하여 합격 가능성에 대한 판단을 내리는 것이 좋습니다.
+더 자세한 정보나 도움이 필요하시다면, 입학처 또는 관련 웹사이트를 참조해보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 동의대학교 법경찰행정학부에 대한 정보를 제공하고 있지만, 해당 학부는 존재하지 않으며, 이는 원본 텍스트와 상충합니다. 또한, 성적 추정치와 관련된 정보도 원본 텍스트의 내용과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 여러 면에서 일치하지 않으며, 특히 법경찰행정학부의 존재 여부와 관련하여 모순된 정보를 제공합니다. 따라서 일관성이 매우 낮습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 동의대학교에 대한 정보를 제공하지만, 원본 텍스트의 핵심 내용인 경찰행정학과의 성적 추정과는 관련이 적습니다. 법경찰행정학부에 대한 정보는 원본 텍스트와 관련이 없으므로 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련하여 문제가 있으므로 점수를 다소 낮추었습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 전체적인 논리적 흐름이 약간 손상되었습니다. 그러나 내부적으로는 논리적으로 연결된 부분이 있습니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 특히 법경찰행정학부의 존재 여부와 관련하여 잘못된 정보를 포함하고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 매우 낮은 점수를 받았습니다. 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 부분이 많습니다. 특히 법경찰행정학부에 대한 언급은 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 읽기 쉬운 편이지만, 내용의 정확성과 관련하여 혼란을 줄 수 있는 요소가 있습니다. 따라서 이해 가능성은 보통 수준입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>0.6432136164669762</v>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 법경찰행정학부에 대한 정보를 바탕으로 추론해보겠습니다.
+- **모집인원**: 7명
+- **지원인원**: 40명
+- **경쟁률**: 5.71 (40 / 7)
+- **충원 합격 (후보순위)**: 13명
+이 정보를 바탕으로, 안정권에 들어가기 위한 평균 성적을 추정해볼 수 있습니다.
+**경쟁률과 충원 합격자 수를 고려하면:**
+- **안정권**: 대략적으로 20~25위 정도의 순위를 유지해야 합니다.
+- **문 닫고 들어갈 수 있는 수준**: 대략적으로 13위 이내에서 선발되는 수준을 목표로 해야 합니다.
+**성적 평균 추정:**
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균**: 315.78
+- **영어 등급의 평균**: 3.11
+이를 바탕으로, 안정권에 들어가기 위한 평균 성적은 대략적으로 **300점 이상**을 받는 것이 좋을 것으로 추정됩니다.
+하지만 이는 추론이며, 실제 입학사정관제에서는 다양한 요소들이 고려되기 때문에 정확한 예측은 불가능합니다. 따라서 최종적인 결정을 내리기 전에 동의대학교 입학사정관 홈페이지를 확인하거나, 대학 관계자와 상담하는 것이 좋습니다.
+더 자세한 정보나 추가 질문이 있으시다면 언제든지 알려주세요!</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 보육가정상담학과에 대한 정보가 아닌 아동학과에 대한 정보를 제공하고 있습니다. 이는 원본 텍스트와의 불일치로 인해 사실성 점수가 낮아졌습니다.
+2. Consistency Score (1-5): 3
+   - 응답은 원본 텍스트의 일부 정보를 반영하고 있지만, 보육가정상담학과와 아동학과의 혼동으로 인해 일관성이 떨어집니다. 
+3. Relevance Score (1-5): 4
+   - 응답은 동의대학교의 정시 모집요강에 대한 정보를 제공하고 있으나, 질문의 핵심인 보육가정상담학과에 대한 정보가 부족하여 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 오류가 없습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 주제의 혼동으로 인해 완전한 일관성을 유지하지 못합니다.
+6. Accuracy Score (1-5): 3
+   - 응답에서 제공된 정보는 일부 정확하지만, 보육가정상담학과에 대한 정보가 아닌 아동학과에 대한 정보로 인해 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서 평균적인 성과를 보이고 있으나, 주제의 혼동과 관련된 정보 부족으로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 응답의 의미는 대체로 적절하지만, 질문의 맥락과 맞지 않는 정보가 포함되어 있어 의미적으로 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉬우나, 주제의 혼동으로 인해 일부 내용이 명확하지 않을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>0.6338610746347345</v>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>정시 산출 등급이 5.33인데 동의대학교 보육가정상담학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 보육가정상담학과의 정시 모집요강을 확인해보겠습니다.
+1. **수능 영어 등급**: 주어진 정보에서 수능 영어 등급은 5입니다.
+   - 수능 영어 등급 5는 107점 이상이므로, 주어진 5.33의 정시 산출 등급으로는 충분합니다.
+2. **정시 모집요강**: 보육가정상담학과의 정시 모집요강을 확인해보겠습니다.
+   - 보육가정상담학과는 학생부종합전형이 주된 모집요인입니다.
+   - 정시모집군은 일반학생전형인 것으로 보입니다.
+3. **정시 합격 기준**: 정시 합격 기준을 확인해보겠습니다.
+   - 정시 합격 기준은 수능 점수와 학생부 성적 등이 복합적으로 평가됩니다.
+   - 주어진 정보만으로는 정확한 합격 가능성을 판단하기 어렵습니다.
+4. **추천**: 
+   - 정확한 합격 가능성을 확인하려면, 동의대학교 홈페이지에서 최신 모집요강을 확인하시거나,
+   - 또는 동의대학교 입학처에 문의를 해보시는 것이 좋습니다.
+   - 또한, 해당 학과의 과목별 요구사항과 정시모집군의 특징 등을 파악하는 것도 중요합니다.
+더 자세한 정보를 얻기 위해서는 https://ipsi. deu.ac.kr/main.do 를 방문하여 최신 모집요강을 확인하시거나, 동의대학교 입학처에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 충원 합격자 발표 일정과 예비 번호에 대한 정보를 포함하고 있지만, 경쟁률에 대한 언급은 출처 텍스트에 명시되어 있지 않으며, 예비 번호 12번에 대한 합격 가능성을 낮게 평가하는 부분은 출처의 내용과 일치하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 출처 텍스트의 일부 정보를 반영하고 있지만, 경쟁률에 대한 주장은 출처와 일치하지 않으며, 예비 번호에 대한 해석이 다릅니다. 따라서 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 출처 텍스트의 주요 주제와 관련이 있지만, 경쟁률에 대한 추가 정보는 출처와 직접적으로 관련이 없습니다. 그러나 전반적으로 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 연결되어 있습니다. 그러나 경쟁률에 대한 언급이 출처와 다르기 때문에 완전한 일관성은 없습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 경쟁률에 대한 주장은 출처 텍스트의 정보와 일치하지 않으며, 예비 번호에 대한 해석이 다릅니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 출처 텍스트의 일부 요소를 반영하고 있지만, 정확성과 일관성에서 부족함이 있어 다차원적으로 높은 품질을 보이지 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 의미적으로 적절하며, 출처 텍스트의 맥락과 잘 맞아떨어집니다. 그러나 경쟁률에 대한 언급이 다소 부적절할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 다만, 일부 문장이 복잡할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>0.6523678568190346</v>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 합격 3차에서 예비 12번 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 보육가정상담 충원 합격 3차에서는 예비 12번을 받았습니다. 이 경우, 경쟁률이 매우 높아 보입니다. 현재까지 공개된 정보를 바탕으로 판단하면, 경쟁률이 5:1 이상인 상황에서 예비 12번을 받은 것은 합격 가능성은 낮다고 볼 수 있습니다.
+하지만, 최종 합격 여부는 합격자 발표일에 개별적으로 확인해야 합니다. 합격자 발표 일정은 2024년 2월 15일(목) 09:00부터 시작되므로, 이 시점에서 결과를 확인하시기 바랍니다.
+추가 정보:
+- 평균 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합은 430.10입니다.
+- 해당 모집단위의 경쟁률이 높아 보이는 만큼, 예비 순위를 받았을 때도 최종 합격 가능성은 낮습니다.
+따라서, 최종 결과는 합격자 발표일에 확인하시기 바랍니다. 더 자세한 정보나 추가 지원 필요시에는 입학안내 홈페이지를 참조하거나 직접 문의하시는 것이 좋겠습니다. https://ipsi. deu. ac. kr/main. do</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 유아교육학과에 지원할 수 있다고 언급하지만, 원본 텍스트에서는 4.75의 성적으로는 지원하기 어렵다고 명확히 설명하고 있습니다. 이로 인해 사실성이 낮아졌습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 상반된 정보를 제공합니다. 원본에서는 4.75로 유아교육학과에 지원하기 어렵다고 했으나, 생성된 응답에서는 가능하다고 언급하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 유아교육학과에 대한 정보와 지원 전략을 다루고 있어 관련성이 높지만, 원본의 핵심 내용과는 다소 차이가 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 연결되어 있습니다. 그러나 원본과의 불일치로 인해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 상충하는 내용을 포함하고 있어 정확성이 낮습니다. 특히 유아교육학과 지원 가능성에 대한 정보가 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 사실성과 일관성에서 큰 문제가 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 유아교육학과에 대한 정보를 제공하지만, 원본의 맥락과는 다소 어긋나는 부분이 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 내용으로 구성되어 있으나, 원본과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>0.7575020305292014</v>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>4.75라는 성적을 가지고 정시로 유아교육학과에 지원하는 것은 가능하지만, 경쟁률이 매우 높기 때문에 어려울 수 있습니다.
+유아교육학과의 경우, 학생부종합전형에서 공동체역량, 학업역량, 전공적합성 등 다양한 영역을 평가합니다. 따라서 단순히 성적이 높다고 해서 유리한 것은 아닙니다. 성적 외에도 다음과 같은 요소들이 중요하게 작용할 수 있습니다:
+1. **공동체역량**: 학교생활기록부에서의 활동, 동아리 참여, 자원봉사 등.
+2. **학업역량**: 과목별 성적 외에 진로 탐색 활동, 창의적 체험활동 등.
+3. **전공적합성**: 지원하는 전공과 관련된 교내 활동, 특기사항 등.
+따라서 4.75라는 성적을 가지고 유아교육학과에 지원하려면, 학교생활기록부에서의 다양한 활동이 중요하게 작용할 수 있습니다. 특히 공동체역량 영역에서는 활발한 참여와 모범적인 행동이 인정받을 것입니다.
+추가적으로, 정시모집군 변경사항을 확인하여 유아교육학과에 해당하는 정시모집군이 어떤지 파악하고, 그에 따른 지원 전략을 세우는 것이 좋습니다. 필요하다면, 입학처나 학교 관계자에게 상담을 받는 것도 도움이 될 수 있습니다.
+더 자세한 정보를 얻기 위해서는 "https://ipsi.deu.ac.kr/main.do" 링크를 참조해 보시거나, 직접 입학처에 문의하시면 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 보육가정상담학과의 일반학생전형에 대한 정보를 제공하고 있지만, 원본 텍스트에서 언급된 아동학과의 평균 등급과 관련된 정보는 포함되어 있지 않으며, 주어진 질문에 대한 직접적인 답변이 부족하다. 또한, 원본 텍스트의 핵심 정보인 정시 등급 4.16에 대한 해석이 잘못되었거나 누락되었다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족하다. 원본 텍스트는 특정한 정시 등급에 대한 합격 가능성을 언급하고 있지만, 생성된 응답은 일반적인 전형 정보에 초점을 맞추고 있어 원본의 주제와 일치하지 않는다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 보육가정상담학과의 전형에 대한 정보를 제공하지만, 질문자가 원하는 합격 가능성에 대한 직접적인 답변이 부족하다. 따라서 관련성은 어느 정도 있지만, 질문의 핵심에 대한 직접적인 답변이 결여되어 있다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 정보를 포함하고 있지만, 주제 간의 연결이 명확하지 않아 일관된 흐름이 부족하다. 원본 텍스트의 핵심 주제와의 연결이 약해 보인다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 핵심 사실을 정확하게 반영하지 않으며, 특히 정시 등급에 대한 해석이 부정확하다. 원본 텍스트의 정보와 비교했을 때, 정확성이 떨어진다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았다. 사실성, 일관성, 정확성에서 부족함이 있으며, 주제와의 관련성도 낮다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 동떨어져 있다. 질문의 의도와는 맞지 않는 정보가 포함되어 있다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 내용이 복잡하게 표현되어 있어 이해하는 데 약간의 어려움이 있을 수 있다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>0.5063848142742808</v>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 보육가정상담학과의 일반학생전형에 대한 정보를 제공하겠습니다.
+보육가정상담학과의 일반학생전형은 학생부종합 평가를 통해 선발되며, 주요 평가 영역은 공동체역량, 학업역량, 전공적합성입니다. 또한, 2024학년도에는 학생부 교과성적 반영방법이 변경되었는데, 이는 전반적으로 과목의 석차등급을 더 많이 반영하게 되었습니다.
+현재您的问题似乎是在询问关于东国大学保育·家庭咨询学专业的普通学生录取情况。根据您提供的信息，2024年东国大学保育·家庭咨询学专业采用综合评价的方式进行招生，并且主要评估领域包括：社会贡献能力、学业能力和专业适应性。
+此外，2024年的学生学业成绩评价方式也有所变化，更加注重各科目的等级排名。您目前的换算等第为4.16，这个成绩在一定程度上反映了您的学术水平和学习能力。
+为了更准确地判断您是否能够被录取，建议参考以下几点：
+1. **共同社会贡献能力**：这包括您的社团活动、志愿服务经历等。
+2. **学业能力**：根据您提供的换算等第4.16来看，这个成绩在一定程度上反映了您的学术水平。但具体还需要看各科目的等级排名是否符合学校的要求。
+3. **专业适应性**：这主要考察您对专业的兴趣和适合度。
+综合以上因素，如果您的共同社会贡献能力较强，并且学业能力和专业适应性也较好，那么被录取的可能性较大。但是最终能否被录取还需参考具体的招生标准和流程，请务必关注东国大学的官方通知或咨询相关部门以获取最准确的信息。
+如需更多信息，建议访问东国大学官网（https://ipsi. deu.ac.kr/main.do）查看最新的招生信息和要求。</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 소프트웨어융합학과가 정시로 지원할 수 없다는 원문과 상반된 내용을 담고 있습니다. 정시 지원에 대한 구체적인 정보와 전형 요소 반영 비율을 언급하고 있지만, 이는 원문에서 명시된 사실과 모순됩니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 일관성이 전혀 없습니다. 원문은 정시 지원이 불가능하다고 명확히 언급하고 있는데, 생성된 응답은 정시 지원을 위한 조건과 절차를 설명하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 관련이 없습니다. 원문이 정시 지원 불가능성을 언급하는 반면, 생성된 응답은 정시 지원을 위한 정보와 조건을 설명하고 있어 주제와 관련성이 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부적절함으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 관계가 부적절하여 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 다릅니다. 소프트웨어융합학과의 정시 지원 가능성에 대한 정보가 잘못 전달되고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 부적절한 정보를 제공합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 부적절함으로 인해 전체적인 이해도에 영향을 미칩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>0.4411381005041404</v>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어융합학과를 정시로 지원하려는 경우, 전형 요소 반영 비율을 확인해야 합니다. 2023년도에는 실기/실적(경기실적우수자전형)의 학생부교과(출결포함)가 30%, 서류(실적)가 70%였습니다. 하지만 2024년도에는 실기/실적(경기실적우수자전형)의 학생부교과가 18%, 출결이 12%, 서류(실적)가 70%로 변경되었습니다.
+따라서, 소프트웨어융합학과를 정시로 지원하려면 학생부 교과 성적이 중요해졌습니다. 특히, 학생부 교과성적의 반영 방식이 바뀌었기 때문에, 평균 등급을 확인해야 합니다.
+2024년도에 소프트웨어융합학과를 정시로 지원하려면, 학생부 교과 성적이 중요해졌습니다. 2023년도의 경우, 국어, 수학, 영어교과 중 석차등급 상위 8과목을 반영했지만, 2024년도에는 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목이 반영됩니다.
+따라서, 평균 등급을 확인하기 위해서는 각 과목의 성적을 잘 유지해야 합니다. 특히, 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 등의 석차등급 상위 12과목이 중요합니다.
+상세한 정보는 "https://ipsi.deu.ac.kr/main.do"를 참조하시거나 대구교육대학교 입학처에 문의하시면 도움을 받으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 서류 평가와 면접 평가의 비율에 대한 정보를 추가했지만, 원본 텍스트에서 제공된 정보와는 다소 차이가 있습니다. 원본 텍스트는 서류 평가와 면접 고사에 대한 구체적인 점수 배분을 언급하지 않았습니다. 따라서 일부 사실이 정확하지 않거나 추가된 정보가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하는 부분도 있지만, 서류 평가와 면접 평가의 비율에 대한 정보가 원본 텍스트와 상충합니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 내용을 잘 다루고 있으며, 질문에 대한 적절한 답변을 제공합니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 이어집니다. 그러나 일부 정보가 추가되면서 약간의 흐름이 방해받을 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 부분이 있으며, 특히 서류 평가와 면접 평가의 비율에 대한 정보가 정확하지 않습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있지만, 사실성과 일관성에서 약간의 문제가 있어 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞춰져 있으며, 적절한 의미를 전달하고 있습니다. 그러나 일부 추가된 정보가 원본의 맥락과 완전히 일치하지 않을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>0.6304742881172545</v>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 소프트웨어융합학과의 경우, 서류평가와 면접 평가 비율이 각각 60%와 40%입니다. 따라서 서류평가에서 더 많은 점수를 받기 위해 세특 내용을 잘 준비하는 것이 중요합니다.
+서류평가에서는 학교생활기록부 외에 제출해야 할 주요 서류로는:
+1. 고교 졸업(예정)자: 교육기관, 공공기관, 무인민원발급기, 인터넷 정부24에서 발급한 학생부 온라인 제공 동의서가 필요하지 않습니다.
+2. 검정고시출신자: 검정고시 합격증서 사본 또는 합격증명서 1부와 검정고시 성적증명서 1부를 제출해야 합니다.
+3. 외국고교 졸업(예정)자: 공증받은 외국고교 졸업(예정)증명서, 공증받은 외국고교 성적증명서, 학교생활기록부 대체 서류를 제출해야 합니다.
+따라서 세특 내용을 준비할 때는 지원하는 전공과 관련된 활동이나 경험을 강조하고, 그 활동에서 얻은 결과와 배운 것을 자세히 기재해야 합니다. 또한 학업역량과 전공적합성에 대한 내용도 함께 포함시켜야 합니다.
+추가적으로 면접에서는 지원동기 및 학업계획, 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답 등을 준비해야 하며, 서류평가 시 작성된 면접질문지를 활용하여 제출서류 진위여부를 검증받을 수 있습니다.
+따라서 세특 내용과 지원동기, 학업계획 등에 대한 준비가 필요합니다.</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부의 최초합격자에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 평균 성적 4.12와 비교하여 4.08의 성적이 약간 높은 수준이라는 점을 명확히 반영하지 못하고 있습니다. 또한, 모집 인원, 지원 인원, 경쟁률 등의 정보는 원본 텍스트에 포함되어 있지 않으므로, 사실적 정확성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 추가된 정보(모집 인원, 지원 인원 등)가 원본 텍스트와의 일관성을 해치고 있습니다. 원본 텍스트의 핵심 내용인 성적 비교와 합격 가능성에 대한 언급이 부족하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부의 합격 가능성에 대한 정보를 제공하고 있지만, 원본 텍스트의 주요 포인트인 성적 비교와 합격 가능성에 대한 직접적인 언급이 부족합니다. 그러나 여전히 관련된 정보를 포함하고 있어 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 체계적으로 제시되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 부족하여 완전한 일관성을 보이지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 핵심 사실(성적 비교 및 합격 가능성)에 대한 정확성이 떨어집니다. 추가된 정보가 원본 텍스트와의 사실적 일치를 해치고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 대체로 적합하지만, 일부 추가 정보가 맥락을 벗어나 있어 완전한 적합성을 보이지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 정보가 과도하게 추가되어 혼란을 줄 수 있습니다. 그러나 기본적인 내용은 명확하게 전달되고 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>0.7857657836945233</v>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.08인데 동의대학교 소프트웨어공학부  최초합격자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프트웨어공학부의 최초합격자를 살펴보겠습니다.
+- 모집 인원: 3명
+- 지원 인원: 16명
+- 경쟁률: 5.33
+- 충원 합격 (후보순위): 3명
+국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 317.77이며, 표준 편차는 2.51입니다.
+이러한 정보를 바탕으로 정시 성적이 4.08인 경우, 동의대학교 소프트웨어공학부 최초합격에 대한 가능성은 다음과 같습니다:
+정시 성적 4.08은 표준 변환 점수 합에서 매우 높은 점수를 의미합니다. 평균이 317.77이고 표준 편차가 2.51인 경우, 4.08은 상당히 높은 점수입니다.
+따라서 정시 성적이 4.08이라면 동의대학교 소프트웨어공학부 최초합격에 대한 가능성은 매우 높습니다. 그러나 실제 합격 여부는 경쟁률, 지원 인원 수, 그리고 다른 학생들의 성적 등 다양한 요인에 따라 결정됩니다.
+따라서 정확한 답변을 위해서는 동의대학교 입시 홈페이지(https://ipsi. deu.ac.kr/main.do)를 참조하거나, 동의대학교 입학처와 직접 문의하는 것이 가장 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보를 제공하지 않고 있으며, 소프트웨어공학부의 신설에 대한 정보도 사실과 다릅니다. 또한, 학생부종합 평가영역의 성적 반영 비율에 대한 정보가 잘못된 것으로 보입니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 소스 텍스트와 일치하지 않는 정보(소프트웨어공학부의 신설 및 성적 반영 비율)를 포함하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 소스 텍스트의 주제와 관련이 있지만, 소프트웨어융합학과에 대한 구체적인 정보가 부족하여 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 편입니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 약간의 개선이 필요합니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 소스 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 사실과 다르거나 잘못된 정보를 포함하고 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 여러 차원에서 낮은 점수를 기록하고 있으며, 사실성, 일관성, 정확성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 소스 텍스트의 맥락과 일치하지 않는 정보가 포함되어 있어 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 편이지만, 일부 정보가 혼란을 줄 수 있어 약간의 개선이 필요합니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>0.667256071531216</v>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)가 신설되었으므로, 정시모집군 변경사항을 확인해야 합니다. 제공된 정보에서 소프트웨어공학부는 정시모집군이 변경되지 않았으며, 학생부종합 평가영역의 진로선택과목 성적반영은 A: 1등급 B: 3등급 C: 5등급으로 반영됩니다.
+따라서, 소프트웨어융합학과에 지원하려면 정시모집군을 확인하고, 학생부종합 평가영역의 진로선택과목 성적반영이 A: 1등급 B: 3등급 C: 5등급으로 반영되는 것을 고려해야 합니다. 따라서, 평균 5등급으로 지원할 수 있습니다.
+만약 추가 정보나 변경 사항이 있다면, "https://ipsi.deu.ac.kr/main.do"를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학과의 평균 성적과 지원자의 성적을 비교하고 있지만, 모집 인원, 지원 인원, 경쟁률 등의 구체적인 수치는 원본 텍스트에 포함되어 있지 않습니다. 따라서 일부 정보는 추가되었으나, 원본 텍스트의 핵심 사실과는 일치하지 않거나 확인할 수 없는 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 바탕으로 하고 있지만, 추가된 정보(모집 인원, 지원 인원 등)가 원본 텍스트와 일치하지 않거나 명확히 확인되지 않는 부분이 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 지원자의 성적과 신소재공학과의 합격 가능성에 대한 정보를 제공하고 있어 관련성이 높습니다. 그러나 원본 텍스트에서 제공된 정보와는 다소 차이가 있는 내용이 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 일부 반복적인 표현이 있어 약간의 매끄러움이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 지원자의 성적과 합격 가능성에 대한 결론을 명확히 제시하고 있습니다. 그러나 추가된 정보가 원본 텍스트와의 연결성을 약간 약화시킵니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 지원자의 성적이 신소재공학과의 평균적인 지원자보다 높다고 언급하고 있지만, 추가된 정보(모집 인원, 경쟁률 등)는 원본 텍스트에 명시되어 있지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 적절한 정보를 제공하지만, 원본 텍스트와의 일관성 및 정확성에서 부족함이 있어 전반적인 품질이 다소 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 지원자의 성적에 대한 분석을 잘 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다. 다만, 일부 반복적인 표현이 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>0.6665148450855698</v>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 신소재공학과의 지원 자료를 바탕으로 분석해보겠습니다.
+신소재공학과의 경우, 모집 인원이 6명이고 지원 인원이 22명이며 경쟁률은 3.67입니다. 또한, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 309.71이며, 이는 지원자의 성적이 4.28일 때 상대적으로 높은 점수입니다.
+국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균이 309.71이고, 이는 지원자의 성적이 4.28일 때 상대적으로 높은 점수입니다. 또한, 영어 등급의 평균이 3.71이며, 이 역시 지원자의 성적이 4.28일 때 상대적으로 높은 점수입니다.
+따라서, 지원자의 성적인 4.28은 신소재공학과의 평균적인 지원자보다 높으므로 합격 가능성은 있습니다. 그러나 경쟁률이 높고 모집 인원이 제한적이기 때문에 확실하지는 않습니다.
+결론적으로, 지원자의 성적 4.28은 신소재공학과의 평균적인 지원자보다 높으므로 합격 가능성은 있지만, 최종 합격 여부는 입시 결과에 따라 결정됩니다. 따라서, 정확한 정보를 얻기 위해서는 동의대학교의 공식 웹사이트나 입시 관련 자료를 확인하는 것이 좋습니다.
+더 궁금하신 점이 있으시면 https://ipsi.deu.ac.kr/main.do 에 접속하여 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 일반학생전형에서 자기소개서가 필요하지 않다는 사실을 정확하게 반영하고 있습니다. 그러나 추가적인 정보(입학 안내 홈페이지 링크 등)는 원본 텍스트에 포함되어 있지 않으므로, 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 자기소개서가 필요하지 않다고 언급하고 있습니다. 다만, 서류 제출 대상에 대한 추가 설명이 포함되어 있어 약간의 일관성 저하가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 질문에 대한 직접적인 답변을 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 다만, 추가 정보가 포함되어 있어 약간의 흐름이 방해받을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 수능 일반학생전형에 대한 정확한 정보를 제공하고 있지만, 원본 텍스트에 없는 추가 정보가 포함되어 있어 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받습니다. 그러나 약간의 부정확성과 일관성 저하가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 추가 정보가 포함되어 있어 약간의 의미적 차이가 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용입니다. 그러나 일부 추가 정보가 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>0.6546381768256598</v>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 일반학생전형에서는 자기소개서가 필요하지 않습니다. 서류 제출 대상이 아닌 경우, 추가로 자기소개서를 작성할 필요가 없습니다. 자세한 내용은 입학 안내 홈페이지 (http://ipsi. deu. ac. kr 또는 http://www. uwayapply. com)에서 확인하실 수 있습니다.
+만약 서류 제출 대상인 경우에는 해당 모집단위의 제출서류를 체크하시고, 필요하다면 자기소개서를 작성해야 합니다. 그러나 현재 제공된 정보로는 수능 일반학생전형에서는 자기소개서가 요구되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 동의대학교의 수능 정시 모집에 대한 정보를 잘 반영하고 있으며, 추가 모집에 대한 가능성을 언급하고 있습니다. 그러나 특정 학과의 경쟁률이나 충원 합격자에 대한 구체적인 정보가 부족하여 완전한 정확성을 보장하지는 않습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 내용과 일관되며, 추가 모집에 대한 정보와 절차를 잘 설명하고 있습니다. 다만, 일부 세부 사항에서 원본 텍스트와의 일관성이 약간 떨어질 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 성적과 추가 모집에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 단계가 명확하게 연결되어 있습니다. 그러나 일부 부분에서 더 매끄럽게 연결될 수 있는 여지가 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 정보를 잘 반영하고 있으며, 수능 성적과 관련된 정보도 정확하게 전달하고 있습니다. 그러나 특정 세부 사항에 대한 정보가 부족하여 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 세부 사항에서 개선의 여지가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 표현에서 더 명확하게 전달될 수 있는 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>0.7303393228669743</v>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>4.5라는 수능 성적을 가지고 추가 모집에 지원할 수 있는지 판단하기 위해서는 해당 대학과 학과의 동의대학교 수능 정시 모집의 경쟁률, 충원 합격자 등 정보를 고려해야 합니다.
+현재 제공된 정보만으로는 특정 학과의 경쟁률이나 충원 합격자를 알 수 없으므로, 다음과 같은 절차를 따르면 도움이 될 것입니다:
+1. **학과별 모집인원 및 지원 인원 확인**: 해당 대학과 학과의 2024년도 모집인원과 지원 인원을 확인합니다.
+2. **경쟁률 확인**: 모집인원과 지원 인원을 통해 경쟁률을 계산합니다 (예: 모집인원 6명, 지원 인원 9명이면 경쟁률은 1.50입니다).
+3. **충원 합격자 확인**: 충원 합격자의 수능 점수를 확인하여 자신의 점수가 어느 위치에 있는지 판단합니다.
+4. **성적 산출방법 확인**: 해당 대학의 성적 산출 방법을 확인합니다 (예: 국어 + 수학 + 탐구 + 영어 등급점수).
+5. **평균 및 표준편차 확인**: 평균 점수와 표준 편차를 확인하여 자신의 점수가 평균보다 얼마나 높은지 판단합니다.
+만약 동의대학교에서 특정 학과의 추가 모집이 진행되고 있으며, 해당 학과의 경쟁률이 낮고 충원 합격자의 수능 점수가 4.5보다 낮다면, 추가 모집에 지원하여 들어갈 가능성이 있습니다. 그러나 이는 단순히 성적만으로 판단하는 것이 아니라, 학과별 모집인원, 지원 인원, 경쟁률 등을 종합적으로 고려해야 합니다.
+더 자세한 정보를 얻기 위해서는 동의대학교의 공식 웹사이트나 입학처에 문의하시는 것을 추천드립니다. "https://ipsi.ipsi.ac.kr/main.do" 링크에서 더 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 신소재공학과의 평균 영어 등급과 수능 4개 영역 등급 평균에 대한 정보를 제공하지 않고 있으며, 잘못된 정보(영어 등급 평균 3.33)를 포함하고 있습니다. 따라서 사실성과 관련하여 여러 부정확한 내용이 포함되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 정보(영어 등급 평균 3.33)를 포함하고 있으며, 원본의 주요 사실과 상충하는 내용을 담고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 신소재공학부의 합격 기준에 대한 정보를 제공하고 있으며, 관련된 주제를 다루고 있습니다. 그러나 원본 텍스트의 구체적인 데이터와는 다소 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 약해지는 부분이 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있으며, 특히 평균 영어 등급에 대한 잘못된 정보가 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 일부 차원에서 양호하지만, 사실성과 일관성에서 큰 문제를 안고 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트의 의미와는 다소 다르게 해석될 수 있는 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 그러나 일부 정보가 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>0.6920421373678098</v>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부는 정시 몇 등급이면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 신소재공학부에 대한 정확한 합격 기준 등급 정보가 제공되지 않았습니다. 하지만, 일반적으로 신소재공학과와 관련된 전공에서는 국어, 수학, 영어, 과학교육 등의 등급이 중요한 역할을 합니다.
+2024학년도 동의대학교의 경우, 신소재공학과는 다음과 같은 특징을 가집니다:
+- 모집 인원: 6명
+- 지원 인원: 22명
+- 경쟁률: 3.67
+- 충원 합격 (후보순위): 4명
+국어, 수학, 탐구(2개)의 표준 변환 점수 평균은 317.77이며, 영어 등급의 평균은 3.33입니다.
+이러한 정보를 바탕으로 추정해보면, 신소재공학과에 합격하기 위해서는 대체로 국어, 수학, 과학교육 등의 등급이 B등급 이상이어야 할 것으로 예상됩니다. 하지만, 정확한 합격 기준 등급은 해당 대학의 공식 입학 안내서나 홈페이지를 참조하는 것이 가장 정확할 것입니다.
+더 자세한 정보는 https://ipsi.deu.ac.kr/main.do 를 방문하여 확인해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 작년 신소재공학과의 평균 점수에 대한 정보가 잘못되었습니다. 원문에서는 평균 점수가 378.15점이라고 명시되어 있는데, 생성된 응답에서는 447점보다 약간 높았다고 언급하고 있습니다. 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, 평균 점수에 대한 잘못된 정보로 인해 일관성이 떨어집니다. 원문에서 제시된 정보와 상충하는 부분이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문의 주제와 관련이 있으며, 신소재공학과의 합격 가능성에 대한 정보를 제공합니다. 원문과 관련된 내용을 잘 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인에 대한 설명이 명확하게 이어집니다. 그러나 평균 점수에 대한 잘못된 정보로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 일치하지 않는 부분이 있어 정확성이 떨어집니다. 특히 평균 점수에 대한 정보가 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 일부 강점이 있지만, 사실성과 정확성에서의 문제로 인해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 적절하게 부합하지만, 잘못된 정보로 인해 의미 전달에 약간의 문제가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 평균 점수에 대한 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>0.7374551829490519</v>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집에서 신소재공학과의 경우, 작년 최종 평균 점수가 447점보다 약간 높았던 것으로 알려져 있습니다. 하지만 이는 단순히 작년 데이터만을 바탕으로 한 예측일 뿐이며, 실제 모집에서는 다양한 요인들이 고려됩니다.
+1. **경쟁률**: 현재 경쟁률이 작년과 크게 다르지 않다면, 작년보다 약간 낮은 점수가 충원될 가능성은 있습니다.
+2. **지원 인원**: 지원 인원의 수가 작년에 비해 증가하거나 감소한다면, 이에도 따라 최종 평균 점수가 변동될 수 있습니다.
+3. **출제 범위 및 난이도**: 수능 문제의 출제 범위와 난이도가 작년과 달라진다면, 이에 따른 점수 변동이 있을 수 있습니다.
+따라서, 작년보다 약간 높은 점수가 최종 평균으로 반영될 가능성은 있지만, 확실한 것은 아닙니다. 정확한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 공식 안내 자료를 확인하는 것이 가장 좋습니다.
+만약 더 자세한 정보가 필요하다면, [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 확인해보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 신소재공학부의 합격 가능성에 대한 여러 요인을 언급하고 있지만, 원본 텍스트에서 제공된 구체적인 성적 데이터와 비교하여 다소 일반적인 정보로 대체되었습니다. 원본의 구체적인 성적 평균과 표준 편차에 대한 언급이 부족하여 사실성 점수가 낮아졌습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부분 일치하지만, 신소재공학부의 합격 가능성에 대한 추가적인 요소를 언급하면서 원본의 구체적인 성적 기준을 간과했습니다. 이로 인해 일관성이 떨어지는 부분이 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 신소재공학부의 합격 가능성에 대한 정보를 제공합니다. 그러나 원본의 구체적인 성적 데이터와 비교하는 부분이 부족하여 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 원본의 구체적인 성적 기준을 언급하지 않음으로써 전체적인 일관성이 약간 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 신소재공학부의 합격 가능성에 대한 여러 요인을 언급하지만, 원본 텍스트의 구체적인 성적 기준을 반영하지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 적절한 정보를 제공하지만, 원본 텍스트의 구체적인 성적 데이터를 반영하지 않아 전반적인 품질이 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 원본의 구체적인 성적 기준을 반영하지 않아 의미의 깊이가 부족합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>0.5429590756806675</v>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>4.3 등급대의 정시 성적이 4.1~4.2로 예상된다면, 신소재공학부 일반학생전형에 합격할 수 있을지는 여러 요인에 따라 다릅니다.
+신소재공학부의 경우, 학생부종합 평가를 포함하여 실기/실적과 같은 다양한 요소들이 고려됩니다. 따라서 정시 성적 외에도 다음과 같은 요소들이 중요하게 작용합니다:
+1. **학생부 교과성적**: 반영과목 수와 석차등급이 중요한 역할을 합니다.
+2. **면접 성적**: 면접에서의 발언력, 소통 능력 등도 고려됩니다.
+3. **추천서 및 서류**: 추천서나 자기소개서 등의 서류가 합격에 큰 영향을 줄 수 있습니다.
+현재 상황에서는 정시 성적이 4.1~4.2로 예상되므로, 다음과 같은 조치를 취해보는 것이 좋습니다:
+- **학생부 교과성적 강화**: 반영과목 수와 석차등급을 최대한 높이는 것이 중요합니다.
+- **면접 준비**: 면접에서의 발언력과 소통 능력을 향상시키기 위해 미리 준비해보세요.
+- **추천서 및 서류 작성**: 추천서와 자기소개서를 잘 작성하여 합격 가능성을 높이도록 하세요.
+따라서, 정시 성적만으로는 확실한 합격을 보장할 수 없지만, 위의 조치들을 통해 합격 가능성은 높일 수 있습니다. 자세한 내용은 대학 홈페이지나 입학처에 문의하여 확인하는 것이 좋습니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do"를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교 인공지능학과의 수능 일반학생전형에 대한 구체적인 성적 정보를 제공하지 않고, 영어영역 등급에 따른 점수만을 언급하고 있습니다. 이는 원본 텍스트의 주요 정보를 누락하고 있으며, 잘못된 정보로 이어질 수 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 특히 영어영역 등급에 대한 점수만을 강조하고 있습니다. 이는 원본 텍스트의 전체적인 맥락과 일치하지 않기 때문에 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 영어영역 등급에 대한 정보를 제공하지만, 원본 텍스트에서 제공하는 전체적인 성적 정보와 관련성이 떨어집니다. 따라서 관련성 점수는 중간 정도로 평가됩니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 따라서 유창성 점수는 높게 평가됩니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 영어영역 등급에 대한 정보를 제공하지만, 원본 텍스트의 전체적인 흐름과는 다소 동떨어져 있습니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 구체적인 성적 정보를 반영하지 않으며, 잘못된 정보로 이어질 수 있습니다. 따라서 정확성 점수는 낮게 평가됩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 여러 차원에서 부족한 점이 많아 전반적인 품질이 낮습니다. 특히 사실성, 일관성, 정확성에서 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 영어영역 등급에 대한 정보를 제공하지만, 원본 텍스트의 맥락과는 다소 어긋나 있습니다. 따라서 의미적 적절성 점수는 중간 정도로 평가됩니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 명확하게 작성되어 있어 이해하기 쉽습니다. 따라서 이해 가능성 점수는 높게 평가됩니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>0.6785350712865403</v>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 인공지능학과로 지원하려면, 수능 영어영역 등급에 따른 점수를 충족시켜야 합니다. 아래는 각 등급별 점수입니다:
+- 등급 1: 139
+- 등급 2: 131
+- 등급 3: 123
+- 등급 4: 115
+- 등급 5: 107
+- 등급 6: 99
+- 등급 7: 91
+- 등급 8: 83
+- 등급 9: 75
+따라서, 인공지능학과로 지원하려면 영어영역의 등급에 따른 최소 점수를 충족시켜야 합니다. 예를 들어, 영어영역 등급이 4라면 115점 이상을 받은 경우에만 지원 가능합니다.
+또한, 수능 국어, 수학, 영어, 사회(역사/도덕 포함), 과학, 한국사 등의 반영과목 점수와 성적도 고려해야 합니다. 자세한 정보는 동의대학교 입학처 홈페이지를 참조하시거나, 학교에 문의하시는 것이 좋습니다.
+더 궁금하신 사항이 있으시면 알려주세요!</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 세부 사항을 완전히 반영하지 못하고 있습니다. 예를 들어, 특정 학과의 충원 합격 가능성에 대한 정보가 다르게 제시되었습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트와 일부 일치하지만, 특정 학과에 대한 정보가 상충하는 부분이 있습니다. 예를 들어, 특정 학과의 경쟁률과 충원 합격 순위가 원본과 다르게 나타나 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 일부 세부 사항이 원본과 다르게 제시되어 있어 완전한 관련성을 보장하지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 개선이 필요합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 일부 정보가 원본과 일치하지 않아 완전한 일관성을 보장하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 세부 사항을 완전히 반영하지 못하고 있습니다. 특히, 특정 학과의 충원 합격 가능성에 대한 정보가 다르게 제시되었습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 품질을 보이고 있지만, 원본 텍스트와의 일치성 및 정확성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 세부 사항에서 차이가 있어 완전한 적합성을 보장하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>0.7780964012885341</v>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>5.27이라는 성적을 가지고 추합 가능성은 단과대학과 모집단위, 지원 인원 등 여러 요인에 따라 다릅니다.
+현재 제공된 정보를 바탕으로 분석해보겠습니다:
+1. **상경대학 호텔·컨벤션경영학과**:
+   - 경쟁률: 1.50
+   - 충원 합격 (후보순위): 3
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합의 평균: 257.00
+   이 성적은 평균보다 낮아 경쟁률이 낮고 충원 합격자수가 적은 곳에서는 가능성이 있습니다.
+2. **상경대학 외식경영학과**:
+   - 경쟁률: 4.83
+   - 충원 합격 (후보순위): 12
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합의 평균: 294.29
+   이 성적은 평균보다 낮아 경쟁률이 높고 충원 합격자수가 많은 곳에서는 추합 가능성은 낮습니다.
+3. **의료보건생활대학 간호학과**:
+   - 경쟁률: 6.59
+   - 충원 합격 (후보순위): 37
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합의 평균: 353.48
+   이 성적은 평균보다 낮아 경쟁률이 높고 충원 합격자수가 많은 곳에서는 추합 가능성은 낮습니다.
+4. **의료보건생활대학 임상병리학과**:
+   - 경쟁률: 4.80
+   - 충원 합격 (후보순위): 8
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합의 평균: 329.82
+   이 성적은 평균보다 낮아 경쟁률이 높고 충원 합격자수가 많은 곳에서는 추합 가능성은 낮습니다.
+5. **의료보건생활대학 치위생학과**:
+   - 경쟁률: 5.50
+   - 충원 합격 (후보순위): 10
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합의 평균: 318.80
+   이 성적은 평균보다 낮아 경쟁률이 높고 충원 합격자수가 많은 곳에서는 추합 가능성은 낮습니다.
+6. **의료보건생활대학 방사선학과**:
+   - 경쟁률: 7.20
+   - 충원 합격 (후보순위): 5
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합의 평균: 338.76
+   이 성적은 평균보다 낮아 경쟁률이 높고 충원 합격자수가 적은 곳에서는 추합 가능성은 낮습니다.
+7. **의료보건생활대학 의료경영학과**:
+   - 경쟁률: 2.80
+   - 충원 합격 (후보순위): 9
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합의 평균: 261.30
+   이 성적은 평균보다 낮아 경쟁률이 낮고 충원 합격자수가 적은 곳에서는 추합 가능성은 있습니다.
+8. **의료보건생활대학 물리치료학과**:
+   - 경쟁률: 12.75
+   - 충원 합격 (후보순위): 3
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합의 평균: 348.23
+   이 성적은 평균보다 낮아 경쟁률이 높고 충원 합격자수가 적은 곳에서는 추합 가능성은 낮습니다.
+9. **의료보건생활대학 식품영양학과**:
+   - 경쟁률: 2.17
+   - 충원 합격 (후보순위): 7
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합의 평균: 256.84
+   이 성적은 평균보다 낮아 경쟁률이 낮고 충원 합격자수가 적은 곳에서는 추합 가능성은 있습니다.
+10. **한의과대학 한의예과(수학&lt;미적분/기하&gt;)**:
+    - 경쟁률: 8.00
+    - 충원 합격 (후보순위): 12
+    - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합의 평균: 399.33
+    이 성적은 평균보다 낮아 경쟁률이 높고 충원 합격자수가 많은 곳에서는 추합 가능성은 낮습니다.
+11. **한의과대학 한의예과(수학&lt;확률과통계&gt;)**:
+    - 경쟁률: 7.00
+    - 충원 합격 (후보순위): 0
+    - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합의 평균: 396.29
+    이 성적은 평균보다 낮아 경쟁률이 높고 충원 합격자수가 적은 곳에서는 추합 가능성은 낮습니다.
+12. **공과대학 기계공학과, 로봇자동화공학과, 자동차공학과**:
+    - 경쟁률: 0.87
+    - 충원 합격 (후보순위): 0
+    - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합의 평균: 251.82
+    이 성적은 평균보다 낮아 경쟁률이 낮고 충원 합격자수가 적은 곳에서는 추합 가능성은 있습니다.
+13. **공과대학 조선해양공학과**:
+    - 경쟁률: 0.83
+    - 충원 합격 (후보순위): 0
+    - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합의 평균: 262.88
+    이 성적은 평균보다 낮아 경쟁률이 낮고 충원 합격자수가 적은 곳에서는 추합 가능성은 있습니다.
+따라서, 5.27이라는 성적을 가지고는 대부분의 단과대학 모집단위에서 추합 가능성은 낮습니다. 그러나 경쟁률이 낮고 충원 합격자수가 적은 곳에서는 추합 가능성이 있습니다. 자세한 정보를 얻기 위해서는 해당 대학의 입시 홈페이지나 관계부서에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경쟁률과 성적 평균에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 영어 등급 평균과 수능 4개 영역 등급 평균에 대한 정보는 포함되어 있지 않습니다. 따라서 일부 사실이 누락되어 있어 점수를 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 경쟁률과 성적 평균에 대한 정보가 추가되어 있어 일관성이 떨어지는 부분이 있습니다. 원본 텍스트의 주요 사실과는 다소 다른 방향으로 전개되고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 정시 성적 4.2에 대한 합격 가능성을 다루고 있어 원본 텍스트와 관련이 있지만, 추가된 정보가 원본의 핵심 내용과는 다소 차이가 있어 점수를 4로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 점수를 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결성이 약해져 있어 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 제공하지만, 원본 텍스트의 주요 사실이 누락되어 있어 정확성 점수를 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 점수를 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 맥락과 의미에 적합하지만, 일부 추가 정보가 원본의 의미와 다소 어긋나 있어 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있어 점수를 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>0.6024562058444141</v>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>정시 성적 4.2인데 동의대학교 소프트웨어공학부 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프트웨어공학부에 대한 정보를 바탕으로, 정시 성적 4.2인 경우 합격 가능성은 어느 정도일지 예측해보겠습니다.
+1. **경쟁률**: 2024학년도 모집단위에서 지원 인원이 16명이고 충원 합격자는 3명으로 경쟁률이 5.33입니다. 이는 상대적으로 높은 경쟁률을 보여줍니다.
+2. **성적 평균**: 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 317.77입니다. 이는 정시 성적 4.2보다 높습니다.
+3. **성적 분포**: 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 430.10이고, 이는 정시 성적 4.2보다 훨씬 높습니다.
+따라서, 정시 성적 4.2인 경우 동의대학교 소프트웨어공학부에 합격하기 위해서는 매우 높은 경쟁률을 이겨내야 합니다. 하지만, 이전 합격자들의 성적이 평균보다 낮았던 점을 고려하면, 정시 성적 4.2인 경우에도 합격 가능성은 존재합니다.
+**추천 조치**: 
+- **성적 향상**: 현재 성적을 높이기 위한 노력이 필요합니다.
+- **추천서 및 자기소개서 작성**: 추천서와 자기소개서를 잘 준비하여 지원자의 전반적인 능력을 보여줄 수 있도록 합니다.
+- **면접 준비**: 면접에서도 좋은 결과를 얻을 수 있도록 준비해야 합니다.
+이런 조치들을 통해 합격 가능성은 높일 수 있을 것입니다. 자세한 정보는 동의대학교 입학처 웹사이트에서 확인하시거나, 직접 문의해보시는 것이 좋습니다. "https://ipsi. deu.ac.kr/main.do"</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 화학환경공학부의 평균 성적과 관련된 정보를 제공하고 있으며, 3.92라는 점수가 합격 가능성에 미치는 영향을 설명하고 있습니다. 그러나, 특정 전형의 성적 산출 방식과 모집 인원, 지원 인원 등을 고려해야 한다는 점에서 다소 불확실성을 내포하고 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관되게 수능 성적을 기반으로 합격자를 선발한다는 내용을 포함하고 있습니다. 그러나, 추가적인 정보가 필요하다는 점에서 약간의 일관성 부족이 느껴집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 화학환경공학부의 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나, 정보의 양이 많아 다소 복잡하게 느껴질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 수능 성적 산출 방식에 대한 설명도 정확합니다. 그러나, 추가적인 정보가 필요하다는 점에서 완전한 정확성은 부족할 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받고 있습니다. 그러나 약간의 개선 여지가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있습니다. 다만, 일부 문장에서 의미가 다소 모호하게 전달될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 정보가 많아 다소 복잡하게 느껴질 수 있습니다. 명확한 구조와 표현이 필요합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>0.6689159460452007</v>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 확정적으로 판단하기 어렵습니다. 동의대학교 화학환경공학부의 경우, 정시 모집에서 수능 성적을 기반으로 합격자를 선발합니다. 하지만 특정 전형의 성적 산출 방식과 모집인원, 지원 인원 등을 고려해야 합니다.
+현재 제공된 정보는 다음과 같습니다:
+- 동의대학교 화학환경공학부는 정시 모집입니다.
+- 수능 반영 영역은 국어(화법과작문 또는 언어와매체) 25% + 수학(확률과통계 또는 미적분 또는 기하) 25% + 영어 25% + 탐구(사회탐구 또는 과학탐구 또는 직업탐구 - 2개 과목 합) 25%입니다.
+- 성적 산출 방식은 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수입니다.
+3.92라는 점수가 나오는 경우, 이는 각 영역의 표준점수와 등급점수를 합산한 결과일 것입니다. 하지만 화학환경공학부의 모집인원과 지원 인원, 경쟁률 등을 고려해야 합니다.
+따라서, 정확한 판단을 위해서는:
+1. 동의대학교 화학환경공학부의 2024학년도 모집인원과 지원 인원을 확인해야 합니다.
+2. 해당 학과의 수능 성적 산출 방식과 경쟁률 등을 고려해야 합니다.
+추가 정보를 제공해 주시면 더 정확한 판단이 가능할 것입니다. 필요하다면, "https://ipsi. deu. ac. kr/main. do" 링크를 참조하여 공식 홈페이지에서 최신 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교 화학환경공학부의 수능 일반학생전형에 대한 정보와 관련이 없으며, 다른 학과의 경쟁률과 지원 인원에 대한 정보를 포함하고 있습니다. 이는 원본 텍스트의 내용과 일치하지 않으며, 잘못된 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일관성이 없습니다. 원본 텍스트는 화학환경공학부에 대한 합격 가능성을 다루고 있지만, 생성된 응답은 다른 학과의 경쟁률에 대한 정보를 제공하여 혼란을 초래합니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 적습니다. 화학환경공학부에 대한 정보가 아닌 다른 학과의 경쟁률을 언급하고 있어, 원본 텍스트의 핵심 주제를 제대로 다루지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 일관성 부족으로 인해 전체적인 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 정보를 포함하고 있지만, 주제가 일관되지 않아 논리적인 흐름이 약간 부족합니다. 화학환경공학부에 대한 정보가 아닌 다른 학과의 정보가 포함되어 있어 혼란을 초래합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 다른 학과의 경쟁률과 지원 인원에 대한 정보는 정확하지 않을 수 있습니다. 원본 텍스트의 정보와는 관련이 없습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 관련성에서 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 다른 학과의 정보를 포함하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 문법적으로는 이해할 수 있지만, 내용의 일관성이 부족하여 전체적으로 혼란스러울 수 있습니다. 따라서 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>0.6440421146043706</v>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.25인데 동의대학교 화학환경공학부에 수능 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>4.25라는 점수는 현재 제공된 데이터를 바탕으로 분석해보겠습니다.
+ICT융합공과대학 게임공학과의 경우, 경쟁률이 5.33이고 지원 인원이 16명이며 모집인원은 3명입니다. 이에 비해 화학환경공학부는 경쟁률이 낮아 보입니다. 예술디자인체육대학 패션디자인학과의 경우, 경쟁률이 3.67이고 지원 인원이 22명이며 모집인원은 6명입니다.
+화학환경공학부의 경우, 경쟁률이 낮고 모집인원이 많으므로 4.25라는 점수로 합격 가능성이 높아 보입니다. 그러나 정확한 합격 가능성은 해당 대학과 전형별 평균점수와 지원자들의 성적 분포를 고려해야 합니다.
+따라서, 동의대학교 화학환경공학부에 수능 일반학생전형으로 4.25라는 점수로 합격 가능성이 높아 보입니다만, 최종 결정은 해당 대학에서 발표하는 정시 성적과 지원자들의 성적 분포를 바탕으로 하여야 합니다.
+더 자세한 정보는 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do" 링크에서 더 많은 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 영화학과의 평균 성적과 관련된 정보를 제공하고 있으며, 4.2라는 점수에 대한 합격 가능성을 언급하고 있습니다. 그러나, 응답에서 제시된 경쟁률 및 모집 인원 등의 정보는 원본 텍스트에 포함되어 있지 않으므로, 일부 사실이 추가되었지만 전반적으로 정확한 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 추가된 정보(모집 인원, 지원 인원 등)가 원본 텍스트에 없기 때문에 일관성이 떨어질 수 있습니다. 따라서, 응답의 일관성은 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 영화학과의 평균 성적과 관련된 정보를 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기 쉽게 작성되었습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나, 추가된 정보가 원본 텍스트와의 연결성을 약간 약화시킬 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 원본 텍스트의 정보를 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다. 그러나, 원본 텍스트에 없는 정보가 포함되어 있어 완전한 정확성은 다소 떨어질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 관련성, 유창성, 일관성 등 여러 차원에서 긍정적인 평가를 받을 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 질문에 대한 적절한 답변을 제공합니다. 다만, 추가된 정보가 원본의 의미를 약간 변형할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다. 그러나, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>0.6824615584599839</v>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>4.2라는 점수를 가지고 영화학과에 지원하셨다면, 현재 제공된 데이터만으로는 확실한 답변을 드리기 어렵습니다. 하지만, 지난해의 지원자들의 평균 점수와 경쟁률 등을 고려하면 다음과 같은 정보가 도움이 될 수 있습니다.
+영화학과의 경우:
+- 모집 인원: 5명
+- 지원 인원: 11명
+- 경쟁률: 2.20
+- 충원 합격 (후보순위): 6명
+국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 286.77이며, 이는 지원자의 성적을 비교하는 데 중요한 기준이 됩니다.
+현재 제공된 점수가 4.2라면, 이 점수가 286.77보다 높다면 좋은 성적이지만, 정확한 합격 가능성은 현재의 점수만으로는 판단하기 어렵습니다. 실제 합격 가능성을 확인하려면, 해당 과목별로 구체적인 점수를 가지고 평균 점수와 비교해야 합니다.
+따라서, 가장 정확한 정보를 얻기 위해서는:
+1. 현재의 성적을 각 과목별로 확인합니다.
+2. 이 성적들이 4.2라는 전체 점수에 어떻게 반영되는지 확인합니다.
+3. 해당 학과의 평균 점수와 비교하여 판단합니다.
+만약 자세한 정보를 원하시면, "https://ipsi. deu. ac. kr/main. do" 링크를 참조해 보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 면접 절차를 정확하게 반영하고 있으며, 추가된 내용도 면접 절차와 관련이 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 추가된 내용이 원본의 정보와 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스럽게 표현되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>0.8567769832479299</v>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실
+이 절차를 따르며, 면접은 입학사정관 2인이 평가위원이 되어 수험생 1명을 대상으로 개별적 평가를 진행합니다.</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
